--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.04999999999999893</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>6.123</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.04999999999999893</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>6.122</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.04999999999999893</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20</v>
+      </c>
       <c r="L14" t="n">
         <v>6.121</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.05999999999999872</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>6.121</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.06999999999999851</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
       <c r="L16" t="n">
         <v>6.122999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>60</v>
+      </c>
       <c r="L17" t="n">
         <v>6.125999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>60</v>
+      </c>
       <c r="L18" t="n">
         <v>6.129</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
       <c r="L19" t="n">
         <v>6.132</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>6.135</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>6.135999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>6.136999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K23" t="n">
-        <v>11.11111111111199</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L23" t="n">
         <v>6.138999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111199</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L24" t="n">
         <v>6.140999999999997</v>
@@ -1515,7 +1537,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111199</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>6.141999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K26" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>6.143999999999997</v>
@@ -1613,7 +1635,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K27" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>6.144999999999998</v>
@@ -1662,7 +1684,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K28" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>6.145999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K29" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>6.146999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K30" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>6.147999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.08999999999999897</v>
       </c>
       <c r="K31" t="n">
-        <v>50.00000000000111</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>6.148999999999999</v>
@@ -1859,9 +1881,7 @@
       <c r="J32" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K32" t="n">
-        <v>50.00000000000111</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>6.15</v>
       </c>
@@ -1910,9 +1930,7 @@
       <c r="J33" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K33" t="n">
-        <v>50.00000000000111</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>6.15</v>
       </c>
@@ -1961,9 +1979,7 @@
       <c r="J34" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K34" t="n">
-        <v>50.00000000000111</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>6.15</v>
       </c>
@@ -2012,9 +2028,7 @@
       <c r="J35" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K35" t="n">
-        <v>33.33333333333531</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>6.15</v>
       </c>
@@ -2063,9 +2077,7 @@
       <c r="J36" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K36" t="n">
-        <v>100</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>6.15</v>
       </c>
@@ -2114,9 +2126,7 @@
       <c r="J37" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K37" t="n">
-        <v>100</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>6.15</v>
       </c>
@@ -2165,9 +2175,7 @@
       <c r="J38" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K38" t="n">
-        <v>100</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>6.15</v>
       </c>
@@ -2216,9 +2224,7 @@
       <c r="J39" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K39" t="n">
-        <v>100</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>6.15</v>
       </c>
@@ -2267,9 +2273,7 @@
       <c r="J40" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K40" t="n">
-        <v>100</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>6.15</v>
       </c>
@@ -2318,9 +2322,7 @@
       <c r="J41" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K41" t="n">
-        <v>100</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>6.15</v>
       </c>
@@ -2369,9 +2371,7 @@
       <c r="J42" t="n">
         <v>0.08999999999999897</v>
       </c>
-      <c r="K42" t="n">
-        <v>100</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>6.15</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0.1599999999999993</v>
       </c>
       <c r="K53" t="n">
-        <v>14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>6.157000000000005</v>
@@ -2980,7 +2980,7 @@
         <v>0.1599999999999993</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571392</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>6.157000000000006</v>
@@ -3031,7 +3031,7 @@
         <v>0.1599999999999993</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571392</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>6.157000000000006</v>
@@ -3081,9 +3081,7 @@
       <c r="J56" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K56" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>6.160000000000005</v>
       </c>
@@ -3132,9 +3130,7 @@
       <c r="J57" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K57" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3183,9 +3179,7 @@
       <c r="J58" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K58" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3234,9 +3228,7 @@
       <c r="J59" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K59" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3285,9 +3277,7 @@
       <c r="J60" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K60" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3336,9 +3326,7 @@
       <c r="J61" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K61" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3387,9 +3375,7 @@
       <c r="J62" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K62" t="n">
-        <v>14.28571428571392</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>6.160000000000006</v>
       </c>
@@ -3439,7 +3425,7 @@
         <v>0.1799999999999988</v>
       </c>
       <c r="K63" t="n">
-        <v>33.33333333333267</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
         <v>6.162000000000006</v>
@@ -3490,7 +3476,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="K64" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
         <v>6.166000000000007</v>
@@ -3541,7 +3527,7 @@
         <v>0.1999999999999993</v>
       </c>
       <c r="K65" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
         <v>6.170000000000007</v>
@@ -3948,9 +3934,7 @@
       <c r="J73" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K73" t="n">
-        <v>100</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>6.200000000000012</v>
       </c>
@@ -3999,9 +3983,7 @@
       <c r="J74" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="K74" t="n">
-        <v>100</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>6.200000000000012</v>
       </c>
@@ -4051,7 +4033,7 @@
         <v>0.2399999999999993</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>6.19600000000001</v>
@@ -4102,7 +4084,7 @@
         <v>0.2499999999999991</v>
       </c>
       <c r="K76" t="n">
-        <v>-11.11111111111089</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>6.191000000000011</v>
@@ -4153,7 +4135,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-27.27272727272742</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>6.18400000000001</v>
@@ -4204,7 +4186,7 @@
         <v>0.2699999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-27.27272727272742</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>6.177000000000009</v>
@@ -4255,7 +4237,7 @@
         <v>0.29</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307482</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L79" t="n">
         <v>6.172000000000009</v>
@@ -4306,7 +4288,7 @@
         <v>0.29</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307482</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L80" t="n">
         <v>6.16700000000001</v>
@@ -4357,7 +4339,7 @@
         <v>0.29</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692307482</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L81" t="n">
         <v>6.162000000000011</v>
@@ -4408,7 +4390,7 @@
         <v>0.3400000000000007</v>
       </c>
       <c r="K82" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857106</v>
       </c>
       <c r="L82" t="n">
         <v>6.15200000000001</v>
@@ -4459,7 +4441,7 @@
         <v>0.3800000000000008</v>
       </c>
       <c r="K83" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>6.14600000000001</v>
@@ -4510,7 +4492,7 @@
         <v>0.4300000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>-47.82608695652161</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L84" t="n">
         <v>6.13500000000001</v>
@@ -4561,7 +4543,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>-51.99999999999977</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L85" t="n">
         <v>6.12600000000001</v>
@@ -4612,7 +4594,7 @@
         <v>0.4500000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>-51.99999999999977</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>6.11800000000001</v>
@@ -4663,7 +4645,7 @@
         <v>0.4600000000000009</v>
       </c>
       <c r="K87" t="n">
-        <v>-53.84615384615374</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L87" t="n">
         <v>6.11100000000001</v>
@@ -4714,7 +4696,7 @@
         <v>0.4700000000000015</v>
       </c>
       <c r="K88" t="n">
-        <v>-48.1481481481477</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L88" t="n">
         <v>6.105000000000009</v>
@@ -4765,7 +4747,7 @@
         <v>0.4700000000000015</v>
       </c>
       <c r="K89" t="n">
-        <v>-48.1481481481477</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L89" t="n">
         <v>6.097000000000009</v>
@@ -4816,7 +4798,7 @@
         <v>0.4700000000000015</v>
       </c>
       <c r="K90" t="n">
-        <v>-48.1481481481477</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L90" t="n">
         <v>6.089000000000009</v>
@@ -4867,7 +4849,7 @@
         <v>0.4700000000000015</v>
       </c>
       <c r="K91" t="n">
-        <v>-48.1481481481477</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L91" t="n">
         <v>6.081000000000009</v>
@@ -4918,7 +4900,7 @@
         <v>0.490000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>-51.72413793103412</v>
+        <v>-81.81818181818079</v>
       </c>
       <c r="L92" t="n">
         <v>6.076000000000009</v>
@@ -4969,7 +4951,7 @@
         <v>0.5000000000000018</v>
       </c>
       <c r="K93" t="n">
-        <v>-53.33333333333294</v>
+        <v>-71.42857142856998</v>
       </c>
       <c r="L93" t="n">
         <v>6.06600000000001</v>
@@ -5020,7 +5002,7 @@
         <v>0.5400000000000018</v>
       </c>
       <c r="K94" t="n">
-        <v>-58.82352941176432</v>
+        <v>-77.77777777777668</v>
       </c>
       <c r="L94" t="n">
         <v>6.057000000000009</v>
@@ -5071,7 +5053,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="K95" t="n">
-        <v>-27.77777777777776</v>
+        <v>-6.666666666667062</v>
       </c>
       <c r="L95" t="n">
         <v>6.05600000000001</v>
@@ -5122,7 +5104,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K96" t="n">
-        <v>-27.77777777777776</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L96" t="n">
         <v>6.05400000000001</v>
@@ -5173,7 +5155,7 @@
         <v>0.6100000000000012</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.52941176470579</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L97" t="n">
         <v>6.05300000000001</v>
@@ -5224,7 +5206,7 @@
         <v>0.7100000000000009</v>
       </c>
       <c r="K98" t="n">
-        <v>-40.90909090909072</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L98" t="n">
         <v>6.04100000000001</v>
@@ -5275,7 +5257,7 @@
         <v>0.7100000000000009</v>
       </c>
       <c r="K99" t="n">
-        <v>-47.61904761904756</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L99" t="n">
         <v>6.02900000000001</v>
@@ -5326,7 +5308,7 @@
         <v>0.7100000000000009</v>
       </c>
       <c r="K100" t="n">
-        <v>-47.61904761904756</v>
+        <v>-50.00000000000019</v>
       </c>
       <c r="L100" t="n">
         <v>6.017000000000009</v>
@@ -5377,7 +5359,7 @@
         <v>0.7600000000000007</v>
       </c>
       <c r="K101" t="n">
-        <v>-53.19148936170206</v>
+        <v>-55.55555555555563</v>
       </c>
       <c r="L101" t="n">
         <v>6.000000000000009</v>
@@ -5428,7 +5410,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K102" t="n">
-        <v>-34.78260869565201</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>5.98900000000001</v>
@@ -5479,7 +5461,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K103" t="n">
-        <v>-47.61904761904746</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L103" t="n">
         <v>5.97900000000001</v>
@@ -5530,7 +5512,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="K104" t="n">
-        <v>-40.54054054054038</v>
+        <v>-59.99999999999982</v>
       </c>
       <c r="L104" t="n">
         <v>5.973000000000011</v>
@@ -5581,7 +5563,7 @@
         <v>0.8400000000000007</v>
       </c>
       <c r="K105" t="n">
-        <v>-43.58974358974351</v>
+        <v>-65.21739130434773</v>
       </c>
       <c r="L105" t="n">
         <v>5.957000000000011</v>
@@ -5632,7 +5614,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K106" t="n">
-        <v>-30.23255813953482</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L106" t="n">
         <v>5.94600000000001</v>
@@ -5683,7 +5665,7 @@
         <v>0.9200000000000008</v>
       </c>
       <c r="K107" t="n">
-        <v>-34.78260869565201</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L107" t="n">
         <v>5.931000000000012</v>
@@ -5734,7 +5716,7 @@
         <v>0.9600000000000009</v>
       </c>
       <c r="K108" t="n">
-        <v>-26.53061224489797</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L108" t="n">
         <v>5.930000000000011</v>
@@ -5785,7 +5767,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-32.07547169811323</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L109" t="n">
         <v>5.925000000000011</v>
@@ -5836,7 +5818,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-22.80701754385965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>5.924000000000011</v>
@@ -5887,7 +5869,7 @@
         <v>1.050000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-24.13793103448285</v>
+        <v>-4.000000000000256</v>
       </c>
       <c r="L111" t="n">
         <v>5.92700000000001</v>
@@ -5938,7 +5920,7 @@
         <v>1.070000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>-17.24137931034477</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L112" t="n">
         <v>5.92800000000001</v>
@@ -5989,7 +5971,7 @@
         <v>1.090000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-18.6440677966102</v>
+        <v>-3.448275862069176</v>
       </c>
       <c r="L113" t="n">
         <v>5.927000000000009</v>
@@ -6040,7 +6022,7 @@
         <v>1.110000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>-8.771929824561354</v>
+        <v>18.5185185185183</v>
       </c>
       <c r="L114" t="n">
         <v>5.92800000000001</v>
@@ -6091,7 +6073,7 @@
         <v>1.120000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>-23.07692307692287</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>5.93200000000001</v>
@@ -6142,7 +6124,7 @@
         <v>1.120000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-21.56862745098022</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L116" t="n">
         <v>5.932000000000011</v>
@@ -6193,7 +6175,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>-23.076923076923</v>
+        <v>-5.882352941176778</v>
       </c>
       <c r="L117" t="n">
         <v>5.935000000000011</v>
@@ -6244,7 +6226,7 @@
         <v>1.140000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.976744186046531</v>
+        <v>14.28571428571374</v>
       </c>
       <c r="L118" t="n">
         <v>5.933000000000011</v>
@@ -6295,7 +6277,7 @@
         <v>1.210000000000004</v>
       </c>
       <c r="K119" t="n">
-        <v>-20</v>
+        <v>-52.94117647058787</v>
       </c>
       <c r="L119" t="n">
         <v>5.928000000000011</v>
@@ -6346,7 +6328,7 @@
         <v>1.260000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>-27.27272727272722</v>
+        <v>-61.90476190476134</v>
       </c>
       <c r="L120" t="n">
         <v>5.914000000000011</v>
@@ -6397,7 +6379,7 @@
         <v>1.390000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>4.761904761904641</v>
+        <v>-6.250000000000121</v>
       </c>
       <c r="L121" t="n">
         <v>5.91400000000001</v>
@@ -6448,7 +6430,7 @@
         <v>1.620000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-29.26829268292678</v>
+        <v>-43.39622641509423</v>
       </c>
       <c r="L122" t="n">
         <v>5.88900000000001</v>
@@ -6499,7 +6481,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>-32.55813953488367</v>
+        <v>-52.72727272727276</v>
       </c>
       <c r="L123" t="n">
         <v>5.86200000000001</v>
@@ -6550,7 +6532,7 @@
         <v>1.910000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.70270270270272</v>
+        <v>-3.797468354430411</v>
       </c>
       <c r="L124" t="n">
         <v>5.858000000000009</v>
@@ -6601,7 +6583,7 @@
         <v>2.170000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>-18.79699248120298</v>
+        <v>-27.61904761904763</v>
       </c>
       <c r="L125" t="n">
         <v>5.82900000000001</v>
@@ -6652,7 +6634,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-1.28205128205131</v>
+        <v>-0.7633587786259386</v>
       </c>
       <c r="L126" t="n">
         <v>5.827000000000011</v>
@@ -6703,7 +6685,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>1.315789473684181</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>5.826000000000011</v>
@@ -6754,7 +6736,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.351351351351382</v>
+        <v>5.691056910569135</v>
       </c>
       <c r="L128" t="n">
         <v>5.82600000000001</v>
@@ -6805,7 +6787,7 @@
         <v>2.440000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>1.388888888888858</v>
+        <v>10.16949152542375</v>
       </c>
       <c r="L129" t="n">
         <v>5.833000000000011</v>
@@ -6856,7 +6838,7 @@
         <v>2.450000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.127659574468101</v>
+        <v>-1.886792452830151</v>
       </c>
       <c r="L130" t="n">
         <v>5.844000000000011</v>
@@ -6907,7 +6889,7 @@
         <v>2.660000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>5.821000000000011</v>
@@ -6958,7 +6940,7 @@
         <v>2.860000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>-2.793296089385465</v>
+        <v>20.00000000000003</v>
       </c>
       <c r="L132" t="n">
         <v>5.841000000000011</v>
@@ -7009,7 +6991,7 @@
         <v>2.860000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>-1.694915254237252</v>
+        <v>-1.052631578947347</v>
       </c>
       <c r="L133" t="n">
         <v>5.865000000000012</v>
@@ -7060,7 +7042,7 @@
         <v>3.060000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-12.82051282051282</v>
+        <v>5.617977528089869</v>
       </c>
       <c r="L134" t="n">
         <v>5.844000000000013</v>
@@ -7111,7 +7093,7 @@
         <v>3.230000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-3.317535545023711</v>
+        <v>-6.32911392405061</v>
       </c>
       <c r="L135" t="n">
         <v>5.866000000000013</v>
@@ -7162,7 +7144,7 @@
         <v>3.240000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-2.830188679245307</v>
+        <v>-5.000000000000006</v>
       </c>
       <c r="L136" t="n">
         <v>5.862000000000013</v>
@@ -7213,7 +7195,7 @@
         <v>3.240000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.369668246445491</v>
+        <v>-5.000000000000006</v>
       </c>
       <c r="L137" t="n">
         <v>5.858000000000013</v>
@@ -7264,7 +7246,7 @@
         <v>3.240000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.904761904761908</v>
+        <v>-5.000000000000006</v>
       </c>
       <c r="L138" t="n">
         <v>5.854000000000012</v>
@@ -7315,7 +7297,7 @@
         <v>3.240000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>1.477832512315284</v>
+        <v>-3.797468354430411</v>
       </c>
       <c r="L139" t="n">
         <v>5.850000000000011</v>
@@ -7366,7 +7348,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>-3.738317757009351</v>
+        <v>2.702702702702644</v>
       </c>
       <c r="L140" t="n">
         <v>5.831000000000012</v>
@@ -7417,7 +7399,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>-4.225352112676052</v>
+        <v>-9.090909090909165</v>
       </c>
       <c r="L141" t="n">
         <v>5.845000000000011</v>
@@ -7468,7 +7450,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>7.368421052631565</v>
+        <v>-9.090909090909165</v>
       </c>
       <c r="L142" t="n">
         <v>5.839000000000012</v>
@@ -7519,7 +7501,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>9.677419354838698</v>
+        <v>30.43478260869559</v>
       </c>
       <c r="L143" t="n">
         <v>5.833000000000012</v>
@@ -7570,7 +7552,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.347826086956541</v>
+        <v>-10.34482758620698</v>
       </c>
       <c r="L144" t="n">
         <v>5.847000000000011</v>
@@ -7621,7 +7603,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>14.07407407407404</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>5.844000000000012</v>
@@ -7672,7 +7654,7 @@
         <v>3.520000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.407407407407414</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L146" t="n">
         <v>5.840000000000011</v>
@@ -7723,7 +7705,7 @@
         <v>3.530000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.256880733944943</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L147" t="n">
         <v>5.835000000000012</v>
@@ -7774,7 +7756,7 @@
         <v>3.530000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-8.256880733944943</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L148" t="n">
         <v>5.830000000000012</v>
@@ -7825,7 +7807,7 @@
         <v>3.530000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-8.256880733944943</v>
+        <v>84.61538461538493</v>
       </c>
       <c r="L149" t="n">
         <v>5.825000000000012</v>
@@ -7876,7 +7858,7 @@
         <v>3.620000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.52991452991453</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>5.827000000000012</v>
@@ -7927,7 +7909,7 @@
         <v>3.690000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>10.67961165048539</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L151" t="n">
         <v>5.824000000000012</v>
@@ -7978,7 +7960,7 @@
         <v>3.690000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-10.843373493976</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L152" t="n">
         <v>5.821000000000012</v>
@@ -8029,7 +8011,7 @@
         <v>3.770000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-1.098901098901174</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>5.826000000000012</v>
@@ -8080,7 +8062,7 @@
         <v>3.780000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>25</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L154" t="n">
         <v>5.830000000000011</v>
@@ -8131,7 +8113,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>5.263157894736891</v>
+        <v>21.42857142857165</v>
       </c>
       <c r="L155" t="n">
         <v>5.836000000000011</v>
@@ -8182,7 +8164,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>3.571428571428656</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L156" t="n">
         <v>5.842000000000011</v>
@@ -8233,7 +8215,7 @@
         <v>3.810000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>1.754385964912242</v>
+        <v>21.42857142857127</v>
       </c>
       <c r="L157" t="n">
         <v>5.848000000000011</v>
@@ -8284,7 +8266,7 @@
         <v>3.820000000000003</v>
       </c>
       <c r="K158" t="n">
-        <v>3.44827586206904</v>
+        <v>24.13793103448278</v>
       </c>
       <c r="L158" t="n">
         <v>5.855000000000013</v>
@@ -8335,7 +8317,7 @@
         <v>3.860000000000003</v>
       </c>
       <c r="K159" t="n">
-        <v>-3.22580645161283</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L159" t="n">
         <v>5.858000000000013</v>
@@ -8386,7 +8368,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K160" t="n">
-        <v>36.00000000000006</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L160" t="n">
         <v>5.874000000000013</v>
@@ -8437,7 +8419,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K161" t="n">
-        <v>15.78947368421063</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L161" t="n">
         <v>5.883000000000012</v>
@@ -8488,7 +8470,7 @@
         <v>3.900000000000003</v>
       </c>
       <c r="K162" t="n">
-        <v>15.78947368421063</v>
+        <v>7.692307692308114</v>
       </c>
       <c r="L162" t="n">
         <v>5.892000000000013</v>
@@ -8539,7 +8521,7 @@
         <v>3.950000000000003</v>
       </c>
       <c r="K163" t="n">
-        <v>25.58139534883725</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L163" t="n">
         <v>5.898000000000013</v>
@@ -8590,7 +8572,7 @@
         <v>3.950000000000003</v>
       </c>
       <c r="K164" t="n">
-        <v>25.58139534883725</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L164" t="n">
         <v>5.905000000000014</v>
@@ -8641,7 +8623,7 @@
         <v>3.990000000000003</v>
       </c>
       <c r="K165" t="n">
-        <v>14.89361702127664</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L165" t="n">
         <v>5.906000000000014</v>
@@ -8692,7 +8674,7 @@
         <v>4.170000000000003</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.92307692307683</v>
+        <v>-44.4444444444442</v>
       </c>
       <c r="L166" t="n">
         <v>5.889000000000014</v>
@@ -8743,7 +8725,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>9.756097560975615</v>
+        <v>1.886792452830151</v>
       </c>
       <c r="L167" t="n">
         <v>5.891000000000014</v>
@@ -8794,7 +8776,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>9.756097560975615</v>
+        <v>10.20408163265304</v>
       </c>
       <c r="L168" t="n">
         <v>5.892000000000014</v>
@@ -8845,7 +8827,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>9.756097560975615</v>
+        <v>2.222222222222178</v>
       </c>
       <c r="L169" t="n">
         <v>5.897000000000014</v>
@@ -8896,7 +8878,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>23.28767123287669</v>
+        <v>2.222222222222178</v>
       </c>
       <c r="L170" t="n">
         <v>5.898000000000014</v>
@@ -8947,7 +8929,7 @@
         <v>4.350000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>15.15151515151521</v>
+        <v>2.222222222222178</v>
       </c>
       <c r="L171" t="n">
         <v>5.899000000000014</v>
@@ -8998,7 +8980,7 @@
         <v>4.390000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>5.904000000000014</v>
@@ -9049,7 +9031,7 @@
         <v>4.390000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>9.677419354838774</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>5.904000000000013</v>
@@ -9100,7 +9082,7 @@
         <v>4.390000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>11.4754098360656</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="L174" t="n">
         <v>5.904000000000013</v>
@@ -9151,7 +9133,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>6.666666666666667</v>
+        <v>91.30434782608712</v>
       </c>
       <c r="L175" t="n">
         <v>5.907000000000013</v>
@@ -9202,7 +9184,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>6.666666666666667</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L176" t="n">
         <v>5.928000000000013</v>
@@ -9253,7 +9235,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>8.474576271186564</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L177" t="n">
         <v>5.931000000000013</v>
@@ -9304,7 +9286,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>6.896551724137947</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L178" t="n">
         <v>5.934000000000013</v>
@@ -9355,7 +9337,7 @@
         <v>4.400000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>14.81481481481485</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L179" t="n">
         <v>5.937000000000014</v>
@@ -9406,7 +9388,7 @@
         <v>4.410000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>5.882352941176348</v>
+        <v>33.33333333333235</v>
       </c>
       <c r="L180" t="n">
         <v>5.939000000000012</v>
@@ -9457,7 +9439,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>-16.92307692307698</v>
+        <v>-100</v>
       </c>
       <c r="L181" t="n">
         <v>5.927000000000014</v>
@@ -9508,7 +9490,7 @@
         <v>4.580000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.76470588235296</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L182" t="n">
         <v>5.914000000000014</v>
@@ -9559,7 +9541,7 @@
         <v>4.610000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>-24.24242424242426</v>
+        <v>-72.72727272727259</v>
       </c>
       <c r="L183" t="n">
         <v>5.898000000000015</v>
@@ -9610,7 +9592,7 @@
         <v>4.610000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-24.24242424242426</v>
+        <v>-71.4285714285713</v>
       </c>
       <c r="L184" t="n">
         <v>5.882000000000015</v>
@@ -9661,7 +9643,7 @@
         <v>4.610000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-19.35483870967743</v>
+        <v>-71.4285714285713</v>
       </c>
       <c r="L185" t="n">
         <v>5.867000000000016</v>
@@ -9712,7 +9694,7 @@
         <v>4.630000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>17.39130434782591</v>
+        <v>-56.52173913043502</v>
       </c>
       <c r="L186" t="n">
         <v>5.854000000000016</v>
@@ -9763,7 +9745,7 @@
         <v>4.650000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>-40.00000000000006</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L187" t="n">
         <v>5.839000000000017</v>
@@ -9814,7 +9796,7 @@
         <v>4.760000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-2.43902439024385</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L188" t="n">
         <v>5.835000000000018</v>
@@ -9865,7 +9847,7 @@
         <v>4.870000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>-23.07692307692308</v>
+        <v>-30.43478260869559</v>
       </c>
       <c r="L189" t="n">
         <v>5.820000000000019</v>
@@ -9916,7 +9898,7 @@
         <v>4.970000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>-3.225806451612977</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L190" t="n">
         <v>5.816000000000018</v>
@@ -9967,7 +9949,7 @@
         <v>4.980000000000002</v>
       </c>
       <c r="K191" t="n">
-        <v>-4.761904761904802</v>
+        <v>14.99999999999992</v>
       </c>
       <c r="L191" t="n">
         <v>5.825000000000019</v>
@@ -10018,7 +10000,7 @@
         <v>4.980000000000002</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.86440677966107</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L192" t="n">
         <v>5.831000000000019</v>
@@ -10069,7 +10051,7 @@
         <v>4.980000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>-11.86440677966107</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L193" t="n">
         <v>5.840000000000019</v>
@@ -10120,7 +10102,7 @@
         <v>4.980000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>-11.86440677966107</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L194" t="n">
         <v>5.84900000000002</v>
@@ -10171,7 +10153,7 @@
         <v>5.050000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-20.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>5.85100000000002</v>
@@ -10222,7 +10204,7 @@
         <v>5.050000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>-20.00000000000011</v>
+        <v>4.999999999999889</v>
       </c>
       <c r="L196" t="n">
         <v>5.851000000000019</v>
@@ -10273,7 +10255,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-21.21212121212129</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L197" t="n">
         <v>5.852000000000019</v>
@@ -10324,7 +10306,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K198" t="n">
-        <v>-21.21212121212129</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L198" t="n">
         <v>5.842000000000019</v>
@@ -10375,7 +10357,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>-21.21212121212129</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>5.84300000000002</v>
@@ -10426,7 +10408,7 @@
         <v>5.060000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L200" t="n">
         <v>5.83400000000002</v>
@@ -10477,7 +10459,7 @@
         <v>5.070000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>3.846153846153767</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L201" t="n">
         <v>5.82700000000002</v>
@@ -10528,7 +10510,7 @@
         <v>5.080000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>-4.000000000000099</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L202" t="n">
         <v>5.81900000000002</v>
@@ -10579,7 +10561,7 @@
         <v>5.110000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.000000000000099</v>
+        <v>-84.61538461538493</v>
       </c>
       <c r="L203" t="n">
         <v>5.80800000000002</v>
@@ -10630,7 +10612,7 @@
         <v>5.110000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.000000000000099</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L204" t="n">
         <v>5.79700000000002</v>
@@ -10681,7 +10663,7 @@
         <v>5.220000000000002</v>
       </c>
       <c r="K205" t="n">
-        <v>14.75409836065573</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L205" t="n">
         <v>5.804000000000021</v>
@@ -10732,7 +10714,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>13.33333333333335</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L206" t="n">
         <v>5.812000000000021</v>
@@ -10783,7 +10765,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K207" t="n">
-        <v>17.24137931034477</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L207" t="n">
         <v>5.821000000000021</v>
@@ -10834,7 +10816,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.12765957446823</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L208" t="n">
         <v>5.830000000000021</v>
@@ -10885,7 +10867,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>27.77777777777772</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L209" t="n">
         <v>5.839000000000022</v>
@@ -10936,7 +10918,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
         <v>5.848000000000022</v>
@@ -10987,7 +10969,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>3.999999999999915</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L211" t="n">
         <v>5.856000000000021</v>
@@ -11038,7 +11020,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>3.999999999999915</v>
+        <v>100</v>
       </c>
       <c r="L212" t="n">
         <v>5.865000000000022</v>
@@ -11089,7 +11071,7 @@
         <v>5.230000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>3.999999999999915</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>5.877000000000022</v>
@@ -11140,7 +11122,7 @@
         <v>5.270000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>17.24137931034477</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>5.893000000000022</v>
@@ -11191,7 +11173,7 @@
         <v>5.270000000000002</v>
       </c>
       <c r="K215" t="n">
-        <v>54.54545454545465</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>5.898000000000021</v>
@@ -11242,7 +11224,7 @@
         <v>5.360000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>67.74193548387105</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>5.911000000000021</v>
@@ -11293,7 +11275,7 @@
         <v>5.360000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>73.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>5.924000000000021</v>
@@ -11344,7 +11326,7 @@
         <v>5.360000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>73.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="L218" t="n">
         <v>5.937000000000021</v>
@@ -11395,7 +11377,7 @@
         <v>5.490000000000003</v>
       </c>
       <c r="K219" t="n">
-        <v>81.39534883720931</v>
+        <v>100</v>
       </c>
       <c r="L219" t="n">
         <v>5.963000000000021</v>
@@ -11446,7 +11428,7 @@
         <v>5.500000000000003</v>
       </c>
       <c r="K220" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L220" t="n">
         <v>5.990000000000021</v>
@@ -11497,7 +11479,7 @@
         <v>5.500000000000003</v>
       </c>
       <c r="K221" t="n">
-        <v>81.39534883720931</v>
+        <v>100</v>
       </c>
       <c r="L221" t="n">
         <v>6.01700000000002</v>
@@ -11548,7 +11530,7 @@
         <v>5.500000000000003</v>
       </c>
       <c r="K222" t="n">
-        <v>85.71428571428562</v>
+        <v>100</v>
       </c>
       <c r="L222" t="n">
         <v>6.04400000000002</v>
@@ -11599,7 +11581,7 @@
         <v>5.560000000000003</v>
       </c>
       <c r="K223" t="n">
-        <v>73.33333333333317</v>
+        <v>58.6206896551722</v>
       </c>
       <c r="L223" t="n">
         <v>6.065000000000019</v>
@@ -11650,7 +11632,7 @@
         <v>5.560000000000003</v>
       </c>
       <c r="K224" t="n">
-        <v>73.33333333333317</v>
+        <v>58.6206896551722</v>
       </c>
       <c r="L224" t="n">
         <v>6.082000000000019</v>
@@ -11701,7 +11683,7 @@
         <v>5.560000000000003</v>
       </c>
       <c r="K225" t="n">
-        <v>64.70588235294096</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L225" t="n">
         <v>6.099000000000019</v>
@@ -11752,7 +11734,7 @@
         <v>5.570000000000004</v>
       </c>
       <c r="K226" t="n">
-        <v>64.70588235294106</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L226" t="n">
         <v>6.10800000000002</v>
@@ -11803,7 +11785,7 @@
         <v>5.580000000000005</v>
       </c>
       <c r="K227" t="n">
-        <v>59.99999999999959</v>
+        <v>36.363636363636</v>
       </c>
       <c r="L227" t="n">
         <v>6.116000000000019</v>
@@ -11854,7 +11836,7 @@
         <v>5.610000000000005</v>
       </c>
       <c r="K228" t="n">
-        <v>63.15789473684173</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L228" t="n">
         <v>6.127000000000019</v>
@@ -11905,7 +11887,7 @@
         <v>5.610000000000005</v>
       </c>
       <c r="K229" t="n">
-        <v>63.15789473684173</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L229" t="n">
         <v>6.12500000000002</v>
@@ -11956,7 +11938,7 @@
         <v>5.620000000000005</v>
       </c>
       <c r="K230" t="n">
-        <v>64.10256410256372</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L230" t="n">
         <v>6.123000000000019</v>
@@ -12007,7 +11989,7 @@
         <v>5.620000000000005</v>
       </c>
       <c r="K231" t="n">
-        <v>64.10256410256372</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L231" t="n">
         <v>6.121000000000019</v>
@@ -12058,7 +12040,7 @@
         <v>5.630000000000004</v>
       </c>
       <c r="K232" t="n">
-        <v>59.99999999999973</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L232" t="n">
         <v>6.118000000000019</v>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S232"/>
+  <dimension ref="A1:M211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.04999999999999893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>6.124000000000001</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.04999999999999893</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.123</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.04999999999999893</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.122</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.04999999999999893</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,22 +911,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.05999999999999872</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.06999999999999851</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.122999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K17" t="n">
-        <v>60</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.125999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K18" t="n">
-        <v>60</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.129</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K19" t="n">
-        <v>60</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.132</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,22 +1086,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K20" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.135</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1337,24 +1121,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.135999999999999</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,24 +1156,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.07999999999999829</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.136999999999999</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>6.129999999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K23" t="n">
-        <v>50.00000000000111</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.138999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>6.130499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K24" t="n">
-        <v>33.33333333333531</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.140999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>6.130999999999998</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6.141999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>6.131499999999997</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.143999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>6.133499999999997</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K27" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.144999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>6.135499999999997</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K28" t="n">
-        <v>100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.145999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>6.137499999999997</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.146999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>6.139499999999996</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.147999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>6.141499999999995</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.08999999999999897</v>
-      </c>
-      <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6.148999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>6.142499999999996</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.136333333333335</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,26 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>6.143499999999996</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.136666666666668</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,26 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>6.144499999999996</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.137000000000002</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,26 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>6.145499999999997</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.137333333333336</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,26 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>6.145999999999997</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.137666666666671</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,26 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>6.146999999999997</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.139000000000004</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2121,26 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>6.147499999999997</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.140333333333336</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,26 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>6.147999999999997</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.141666666666669</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2219,26 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>6.148499999999997</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.143000000000002</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,26 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>6.148999999999996</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6.144333333333336</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2317,26 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>6.149499999999995</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6.145000000000002</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,26 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>6.149999999999995</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6.14566666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2415,26 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.08999999999999897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>6.15</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>6.149999999999994</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6.146333333333336</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.09999999999999876</v>
-      </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6.151000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>6.150499999999994</v>
-      </c>
-      <c r="N44" t="n">
-        <v>6.147333333333337</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2515,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.09999999999999876</v>
-      </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.152000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>6.150999999999994</v>
-      </c>
-      <c r="N45" t="n">
-        <v>6.148000000000004</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.129999999999999</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-50.00000000000111</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.150000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>6.149999999999993</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6.148000000000004</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.151000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>6.150499999999992</v>
-      </c>
-      <c r="N47" t="n">
-        <v>6.148666666666671</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.152000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>6.150999999999992</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6.149333333333337</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2719,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K49" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.153000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>6.151499999999992</v>
-      </c>
-      <c r="N49" t="n">
-        <v>6.150000000000005</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.154000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>6.151999999999991</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6.150666666666671</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.155000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>6.152499999999991</v>
-      </c>
-      <c r="N51" t="n">
-        <v>6.151333333333339</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.156000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>6.15299999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>6.152000000000005</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2923,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>6.157000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>6.15349999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>6.152333333333339</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.157000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>6.153999999999989</v>
-      </c>
-      <c r="N54" t="n">
-        <v>6.152666666666672</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3025,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K55" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.157000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>6.154499999999989</v>
-      </c>
-      <c r="N55" t="n">
-        <v>6.153000000000005</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,26 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>6.160000000000005</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>6.154999999999989</v>
-      </c>
-      <c r="N56" t="n">
-        <v>6.153333333333338</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,26 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>6.155499999999988</v>
-      </c>
-      <c r="N57" t="n">
-        <v>6.153666666666671</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,26 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>6.155999999999987</v>
-      </c>
-      <c r="N58" t="n">
-        <v>6.154000000000004</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3223,26 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>6.156499999999987</v>
-      </c>
-      <c r="N59" t="n">
-        <v>6.154333333333337</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,26 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>6.156999999999987</v>
-      </c>
-      <c r="N60" t="n">
-        <v>6.15466666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3321,26 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>6.157499999999986</v>
-      </c>
-      <c r="N61" t="n">
-        <v>6.155000000000003</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,26 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>6.160000000000006</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>6.157999999999985</v>
-      </c>
-      <c r="N62" t="n">
-        <v>6.155333333333336</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3419,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.1799999999999988</v>
-      </c>
-      <c r="K63" t="n">
-        <v>100</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6.162000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>6.159499999999985</v>
-      </c>
-      <c r="N63" t="n">
-        <v>6.156333333333336</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K64" t="n">
-        <v>100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.166000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>6.161499999999985</v>
-      </c>
-      <c r="N64" t="n">
-        <v>6.158000000000002</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K65" t="n">
-        <v>100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6.170000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>6.163499999999985</v>
-      </c>
-      <c r="N65" t="n">
-        <v>6.159666666666668</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K66" t="n">
-        <v>100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6.174000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>6.166999999999985</v>
-      </c>
-      <c r="N66" t="n">
-        <v>6.161333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3623,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K67" t="n">
-        <v>100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.178000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>6.168999999999984</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6.163</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3674,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K68" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6.182000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>6.170999999999983</v>
-      </c>
-      <c r="N68" t="n">
-        <v>6.164666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K69" t="n">
-        <v>100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>6.18600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>6.172999999999983</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6.166333333333332</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.19000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>6.174999999999983</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6.167999999999998</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.194000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>6.176999999999983</v>
-      </c>
-      <c r="N71" t="n">
-        <v>6.169666666666665</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6.198000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>6.178999999999983</v>
-      </c>
-      <c r="N72" t="n">
-        <v>6.171333333333331</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,26 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>6.200000000000012</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>6.180999999999981</v>
-      </c>
-      <c r="N73" t="n">
-        <v>6.172999999999997</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,26 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0600000000000005</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>6.200000000000012</v>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>6.182999999999981</v>
-      </c>
-      <c r="N74" t="n">
-        <v>6.174333333333331</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.2399999999999993</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.19600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>6.182999999999981</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6.174333333333331</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.2499999999999991</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.191000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>6.182499999999981</v>
-      </c>
-      <c r="N76" t="n">
-        <v>6.174999999999997</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2699999999999996</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.18400000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>6.180999999999981</v>
-      </c>
-      <c r="N77" t="n">
-        <v>6.173999999999997</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.2699999999999996</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.177000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>6.179499999999981</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6.172999999999997</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-55.5555555555549</v>
-      </c>
-      <c r="L79" t="n">
-        <v>6.172000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>6.178999999999983</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6.172666666666664</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-55.5555555555549</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.16700000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>6.178499999999983</v>
-      </c>
-      <c r="N80" t="n">
-        <v>6.172333333333331</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-55.5555555555549</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.162000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>6.177999999999983</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6.171999999999998</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.3400000000000007</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-71.42857142857106</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.15200000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>6.174999999999983</v>
-      </c>
-      <c r="N82" t="n">
-        <v>6.169999999999998</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,26 +3291,10 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.3800000000000008</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6.14600000000001</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>6.172999999999982</v>
-      </c>
-      <c r="N83" t="n">
-        <v>6.169333333333331</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.4300000000000006</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-36.8421052631578</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.13500000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>6.167499999999982</v>
-      </c>
-      <c r="N84" t="n">
-        <v>6.166999999999998</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L85" t="n">
-        <v>6.12600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>6.160999999999982</v>
-      </c>
-      <c r="N85" t="n">
-        <v>6.163999999999998</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-33.333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>6.11800000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>6.154499999999983</v>
-      </c>
-      <c r="N86" t="n">
-        <v>6.160999999999998</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4600000000000009</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-36.8421052631578</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.11100000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>6.147499999999981</v>
-      </c>
-      <c r="N87" t="n">
-        <v>6.157666666666665</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.4700000000000015</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-44.44444444444412</v>
-      </c>
-      <c r="L88" t="n">
-        <v>6.105000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>6.140999999999982</v>
-      </c>
-      <c r="N88" t="n">
-        <v>6.154666666666665</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4741,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.4700000000000015</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-44.44444444444412</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6.097000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>6.134499999999982</v>
-      </c>
-      <c r="N89" t="n">
-        <v>6.151666666666665</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4700000000000015</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-44.44444444444412</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6.089000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>6.127999999999982</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6.148666666666665</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.0699999999999994</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4700000000000015</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-23.07692307692244</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.081000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>6.121499999999982</v>
-      </c>
-      <c r="N91" t="n">
-        <v>6.145666666666664</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.490000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-81.81818181818079</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.076000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>6.113999999999982</v>
-      </c>
-      <c r="N92" t="n">
-        <v>6.141999999999998</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5000000000000018</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-71.42857142856998</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.06600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>6.105999999999982</v>
-      </c>
-      <c r="N93" t="n">
-        <v>6.137333333333331</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5400000000000018</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-77.77777777777668</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.057000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>6.095999999999983</v>
-      </c>
-      <c r="N94" t="n">
-        <v>6.130666666666665</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5047,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-6.666666666667062</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.05600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>6.090999999999983</v>
-      </c>
-      <c r="N95" t="n">
-        <v>6.125999999999999</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6100000000000012</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.05400000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>6.085999999999983</v>
-      </c>
-      <c r="N96" t="n">
-        <v>6.120999999999999</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6100000000000012</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-14.28571428571465</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.05300000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>6.081999999999983</v>
-      </c>
-      <c r="N97" t="n">
-        <v>6.116</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7100000000000009</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-50.00000000000019</v>
-      </c>
-      <c r="L98" t="n">
-        <v>6.04100000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>6.072999999999984</v>
-      </c>
-      <c r="N98" t="n">
-        <v>6.107666666666666</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5251,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7100000000000009</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-50.00000000000019</v>
-      </c>
-      <c r="L99" t="n">
-        <v>6.02900000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>6.062999999999983</v>
-      </c>
-      <c r="N99" t="n">
-        <v>6.099333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7100000000000009</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-50.00000000000019</v>
-      </c>
-      <c r="L100" t="n">
-        <v>6.017000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>6.052999999999983</v>
-      </c>
-      <c r="N100" t="n">
-        <v>6.090999999999999</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.7600000000000007</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-55.55555555555563</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6.000000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>6.040499999999983</v>
-      </c>
-      <c r="N101" t="n">
-        <v>6.081</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5.98900000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>6.032499999999983</v>
-      </c>
-      <c r="N102" t="n">
-        <v>6.072333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5455,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-23.07692307692303</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5.97900000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>6.022499999999983</v>
-      </c>
-      <c r="N103" t="n">
-        <v>6.063666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-59.99999999999982</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5.973000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>6.014999999999983</v>
-      </c>
-      <c r="N104" t="n">
-        <v>6.055000000000001</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.8400000000000007</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-65.21739130434773</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5.957000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>6.006499999999983</v>
-      </c>
-      <c r="N105" t="n">
-        <v>6.046333333333335</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.8800000000000008</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-40.74074074074059</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5.94600000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>5.999999999999983</v>
-      </c>
-      <c r="N106" t="n">
-        <v>6.039333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.9200000000000008</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-23.80952380952373</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5.931000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>5.991999999999983</v>
-      </c>
-      <c r="N107" t="n">
-        <v>6.031666666666668</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5710,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.9600000000000009</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-3.999999999999915</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.930000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>5.985499999999983</v>
-      </c>
-      <c r="N108" t="n">
-        <v>6.025333333333335</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-17.24137931034477</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.925000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>5.976999999999984</v>
-      </c>
-      <c r="N109" t="n">
-        <v>6.017000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.040000000000001</v>
-      </c>
-      <c r="K110" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L110" t="n">
-        <v>5.924000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>5.970499999999984</v>
-      </c>
-      <c r="N110" t="n">
-        <v>6.010000000000002</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5863,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.050000000000002</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-4.000000000000256</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5.92700000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>5.963499999999985</v>
-      </c>
-      <c r="N111" t="n">
-        <v>6.002666666666668</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.070000000000002</v>
-      </c>
-      <c r="K112" t="n">
-        <v>3.703703703703606</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5.92800000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>5.958499999999985</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5.997666666666668</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.090000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-3.448275862069176</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.927000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>5.952999999999985</v>
-      </c>
-      <c r="N113" t="n">
-        <v>5.990666666666669</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.110000000000003</v>
-      </c>
-      <c r="K114" t="n">
-        <v>18.5185185185183</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5.92800000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>5.950499999999986</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5.986000000000002</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.120000000000003</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.93200000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>5.944499999999985</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5.981666666666668</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.120000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>19.99999999999982</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.932000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>5.938999999999985</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5.977333333333335</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.130000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-5.882352941176778</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5.935000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>5.932999999999985</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5.973000000000002</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.140000000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>14.28571428571374</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5.933000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>5.931499999999985</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5.968000000000002</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.210000000000004</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-52.94117647058787</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5.928000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>5.926499999999985</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5.960666666666668</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.3399999999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.260000000000003</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-61.90476190476134</v>
-      </c>
-      <c r="L120" t="n">
-        <v>5.914000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>5.918999999999984</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5.951666666666669</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.390000000000003</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-6.250000000000121</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5.91400000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>5.920499999999985</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5.947000000000003</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.4399999999999995</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.620000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-43.39622641509423</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5.88900000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>5.908499999999984</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5.935333333333335</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.4799999999999995</v>
-      </c>
-      <c r="J123" t="n">
-        <v>1.660000000000003</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-52.72727272727276</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.86200000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>5.894499999999985</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5.922666666666669</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.910000000000003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-3.797468354430411</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5.858000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>5.892999999999985</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5.919666666666669</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6577,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.4899999999999993</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2.170000000000003</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-27.61904761904763</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5.82900000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>5.880499999999985</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5.906000000000002</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-0.7633587786259386</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5.827000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>5.879499999999984</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5.901666666666668</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6676,31 +4826,21 @@
         <v>6.006666666666661</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.2199999999999998</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.826000000000011</v>
+        <v>5.91</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>5.880499999999985</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.897333333333334</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,28 +4870,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5.691056910569135</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5.82600000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>5.879499999999984</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5.896333333333334</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6781,28 +4909,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.2199999999999998</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2.440000000000002</v>
-      </c>
-      <c r="K129" t="n">
-        <v>10.16949152542375</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5.833000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>5.880499999999985</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5.895333333333334</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6832,28 +4948,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.450000000000002</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-1.886792452830151</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5.844000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>5.878999999999984</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5.894000000000001</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6883,28 +4987,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.4399999999999995</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.660000000000002</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.821000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>5.867499999999984</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5.887333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6934,28 +5026,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.860000000000002</v>
-      </c>
-      <c r="K132" t="n">
-        <v>20.00000000000003</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5.841000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>5.864999999999984</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6985,28 +5065,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.860000000000002</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-1.052631578947347</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5.865000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>5.863499999999985</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5.884666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7036,28 +5104,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.4399999999999995</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.060000000000002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5.617977528089869</v>
-      </c>
-      <c r="L134" t="n">
-        <v>5.844000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>5.850999999999985</v>
-      </c>
-      <c r="N134" t="n">
-        <v>5.876666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7087,28 +5143,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.2699999999999996</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.230000000000002</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-6.32911392405061</v>
-      </c>
-      <c r="L135" t="n">
-        <v>5.866000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>5.847499999999985</v>
-      </c>
-      <c r="N135" t="n">
-        <v>5.875666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7135,31 +5179,21 @@
         <v>5.956499999999995</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>3.240000000000002</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-5.000000000000006</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5.862000000000013</v>
+        <v>5.87</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>5.844499999999985</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5.873666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7189,28 +5223,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.240000000000002</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-5.000000000000006</v>
-      </c>
-      <c r="L137" t="n">
-        <v>5.858000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>5.841999999999985</v>
-      </c>
-      <c r="N137" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7240,28 +5262,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.240000000000002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-5.000000000000006</v>
-      </c>
-      <c r="L138" t="n">
-        <v>5.854000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>5.839999999999984</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,28 +5301,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.240000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-3.797468354430411</v>
-      </c>
-      <c r="L139" t="n">
-        <v>5.850000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>5.841499999999984</v>
-      </c>
-      <c r="N139" t="n">
-        <v>5.870333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7342,28 +5340,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.400000000000002</v>
-      </c>
-      <c r="K140" t="n">
-        <v>2.702702702702644</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5.831000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>5.837499999999984</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7393,28 +5379,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-9.090909090909165</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5.845000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>5.832999999999984</v>
-      </c>
-      <c r="N141" t="n">
-        <v>5.859999999999999</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7444,28 +5418,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-9.090909090909165</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5.839000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>5.839999999999984</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.856333333333334</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7495,28 +5457,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K143" t="n">
-        <v>30.43478260869559</v>
-      </c>
-      <c r="L143" t="n">
-        <v>5.833000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>5.848999999999984</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5.853333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7546,28 +5496,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-10.34482758620698</v>
-      </c>
-      <c r="L144" t="n">
-        <v>5.847000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>5.845499999999985</v>
-      </c>
-      <c r="N144" t="n">
-        <v>5.849666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7597,28 +5535,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5.844000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>5.854999999999984</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5.846333333333334</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7648,28 +5574,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.520000000000002</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5.840000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>5.850999999999985</v>
-      </c>
-      <c r="N146" t="n">
-        <v>5.843000000000001</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,31 +5610,21 @@
         <v>5.906333333333327</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.3099999999999996</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.530000000000002</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-17.24137931034477</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5.835000000000012</v>
+        <v>5.83</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>5.846499999999985</v>
-      </c>
-      <c r="N147" t="n">
-        <v>5.839666666666668</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7747,31 +5651,21 @@
         <v>5.902333333333328</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.3099999999999996</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3.530000000000002</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-17.24137931034477</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5.830000000000012</v>
+        <v>5.83</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>5.841999999999985</v>
-      </c>
-      <c r="N148" t="n">
-        <v>5.836666666666669</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,31 +5692,21 @@
         <v>5.898333333333327</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.3099999999999996</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3.530000000000002</v>
-      </c>
-      <c r="K149" t="n">
-        <v>84.61538461538493</v>
-      </c>
-      <c r="L149" t="n">
-        <v>5.825000000000012</v>
+        <v>5.83</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>5.837499999999984</v>
-      </c>
-      <c r="N149" t="n">
-        <v>5.836000000000002</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,31 +5733,21 @@
         <v>5.892833333333328</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.3999999999999995</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>3.620000000000002</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5.827000000000012</v>
+        <v>5.74</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>5.828999999999985</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5.834000000000002</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7900,31 +5774,21 @@
         <v>5.888499999999994</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.3300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>3.690000000000001</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5.824000000000012</v>
+        <v>5.81</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>5.834499999999984</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5.830000000000002</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7951,31 +5815,21 @@
         <v>5.884499999999994</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.3300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>3.690000000000001</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5.821000000000012</v>
+        <v>5.81</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>5.829999999999984</v>
-      </c>
-      <c r="N152" t="n">
-        <v>5.833666666666669</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8002,31 +5856,21 @@
         <v>5.881999999999993</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>3.770000000000001</v>
-      </c>
-      <c r="K153" t="n">
-        <v>20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>5.826000000000012</v>
+        <v>5.81</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>5.829499999999983</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5.841333333333336</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8053,31 +5897,21 @@
         <v>5.879999999999994</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>3.780000000000001</v>
-      </c>
-      <c r="K154" t="n">
-        <v>15.38461538461546</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5.830000000000011</v>
+        <v>5.88</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>5.838499999999984</v>
-      </c>
-      <c r="N154" t="n">
-        <v>5.840333333333335</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8104,31 +5938,21 @@
         <v>5.877333333333326</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.2399999999999993</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="K155" t="n">
-        <v>21.42857142857165</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5.836000000000011</v>
+        <v>5.89</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>5.839999999999984</v>
-      </c>
-      <c r="N155" t="n">
-        <v>5.848666666666669</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8155,31 +5979,21 @@
         <v>5.874833333333326</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.2399999999999993</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="K156" t="n">
-        <v>25.92592592592607</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5.842000000000011</v>
+        <v>5.9</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>5.840999999999984</v>
-      </c>
-      <c r="N156" t="n">
-        <v>5.848000000000003</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8209,28 +6023,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.810000000000002</v>
-      </c>
-      <c r="K157" t="n">
-        <v>21.42857142857127</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5.848000000000011</v>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>5.841499999999984</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5.847000000000003</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8260,28 +6062,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.820000000000003</v>
-      </c>
-      <c r="K158" t="n">
-        <v>24.13793103448278</v>
-      </c>
-      <c r="L158" t="n">
-        <v>5.855000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>5.842499999999985</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5.846333333333336</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8311,28 +6101,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.2799999999999994</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.860000000000003</v>
-      </c>
-      <c r="K159" t="n">
-        <v>49.99999999999982</v>
-      </c>
-      <c r="L159" t="n">
-        <v>5.858000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>5.841499999999985</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5.844333333333338</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8362,28 +6140,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.900000000000003</v>
-      </c>
-      <c r="K160" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L160" t="n">
-        <v>5.874000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>5.850499999999985</v>
-      </c>
-      <c r="N160" t="n">
-        <v>5.844000000000005</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,28 +6179,16 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.900000000000003</v>
-      </c>
-      <c r="K161" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L161" t="n">
-        <v>5.883000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>5.853499999999985</v>
-      </c>
-      <c r="N161" t="n">
-        <v>5.850666666666672</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8464,28 +6218,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.900000000000003</v>
-      </c>
-      <c r="K162" t="n">
-        <v>7.692307692308114</v>
-      </c>
-      <c r="L162" t="n">
-        <v>5.892000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>5.856499999999985</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5.850666666666672</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8515,28 +6257,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.950000000000003</v>
-      </c>
-      <c r="K163" t="n">
-        <v>41.17647058823505</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5.898000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>5.861999999999986</v>
-      </c>
-      <c r="N163" t="n">
-        <v>5.852333333333338</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8566,28 +6296,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.950000000000003</v>
-      </c>
-      <c r="K164" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5.905000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>5.867499999999986</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5.860666666666671</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8617,28 +6335,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.990000000000003</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.263157894736695</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5.906000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>5.870999999999985</v>
-      </c>
-      <c r="N165" t="n">
-        <v>5.862000000000005</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8668,28 +6374,16 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.4099999999999993</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.170000000000003</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-44.4444444444442</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5.889000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>5.865499999999985</v>
-      </c>
-      <c r="N166" t="n">
-        <v>5.857000000000004</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8719,28 +6413,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.350000000000002</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1.886792452830151</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5.891000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>5.869499999999985</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5.858000000000004</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8770,28 +6452,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4.350000000000002</v>
-      </c>
-      <c r="K168" t="n">
-        <v>10.20408163265304</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5.892000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>5.873499999999985</v>
-      </c>
-      <c r="N168" t="n">
-        <v>5.859000000000004</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8821,28 +6491,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4.350000000000002</v>
-      </c>
-      <c r="K169" t="n">
-        <v>2.222222222222178</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5.897000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>5.877499999999985</v>
-      </c>
-      <c r="N169" t="n">
-        <v>5.860000000000004</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8872,28 +6530,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4.350000000000002</v>
-      </c>
-      <c r="K170" t="n">
-        <v>2.222222222222178</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5.898000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>5.885999999999985</v>
-      </c>
-      <c r="N170" t="n">
-        <v>5.866333333333338</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8923,28 +6569,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.2299999999999995</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4.350000000000002</v>
-      </c>
-      <c r="K171" t="n">
-        <v>2.222222222222178</v>
-      </c>
-      <c r="L171" t="n">
-        <v>5.899000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>5.890999999999985</v>
-      </c>
-      <c r="N171" t="n">
-        <v>5.86866666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8974,28 +6608,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.390000000000002</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>5.904000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>5.897999999999985</v>
-      </c>
-      <c r="N172" t="n">
-        <v>5.872333333333336</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9025,28 +6647,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4.390000000000002</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5.904000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>5.900999999999985</v>
-      </c>
-      <c r="N173" t="n">
-        <v>5.876000000000003</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,28 +6686,16 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.1899999999999995</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.390000000000002</v>
-      </c>
-      <c r="K174" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="L174" t="n">
-        <v>5.904000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>5.904499999999985</v>
-      </c>
-      <c r="N174" t="n">
-        <v>5.879666666666669</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9127,28 +6725,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="K175" t="n">
-        <v>91.30434782608712</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5.907000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>5.906499999999985</v>
-      </c>
-      <c r="N175" t="n">
-        <v>5.883000000000002</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9178,28 +6764,16 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="K176" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5.928000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>5.908499999999984</v>
-      </c>
-      <c r="N176" t="n">
-        <v>5.886333333333336</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9229,28 +6803,16 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="K177" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L177" t="n">
-        <v>5.931000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>5.910999999999984</v>
-      </c>
-      <c r="N177" t="n">
-        <v>5.890000000000001</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9280,28 +6842,16 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J178" t="n">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="K178" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5.934000000000013</v>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>5.912999999999984</v>
-      </c>
-      <c r="N178" t="n">
-        <v>5.893666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9331,28 +6881,16 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4.400000000000002</v>
-      </c>
-      <c r="K179" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5.937000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>5.916999999999984</v>
-      </c>
-      <c r="N179" t="n">
-        <v>5.897333333333334</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9382,28 +6920,16 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.410000000000003</v>
-      </c>
-      <c r="K180" t="n">
-        <v>33.33333333333235</v>
-      </c>
-      <c r="L180" t="n">
-        <v>5.939000000000012</v>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>5.918499999999983</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5.903666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9433,28 +6959,16 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4.550000000000002</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L181" t="n">
-        <v>5.927000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>5.912999999999983</v>
-      </c>
-      <c r="N181" t="n">
-        <v>5.903</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9484,28 +6998,16 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.3199999999999994</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4.580000000000003</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-68.42105263157875</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5.914000000000014</v>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>5.908999999999983</v>
-      </c>
-      <c r="N182" t="n">
-        <v>5.903333333333333</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9535,28 +7037,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4.610000000000003</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-72.72727272727259</v>
-      </c>
-      <c r="L183" t="n">
-        <v>5.898000000000015</v>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>5.900999999999984</v>
-      </c>
-      <c r="N183" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9586,28 +7076,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J184" t="n">
-        <v>4.610000000000003</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-71.4285714285713</v>
-      </c>
-      <c r="L184" t="n">
-        <v>5.882000000000015</v>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>5.892999999999984</v>
-      </c>
-      <c r="N184" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9637,28 +7115,16 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J185" t="n">
-        <v>4.610000000000003</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-71.4285714285713</v>
-      </c>
-      <c r="L185" t="n">
-        <v>5.867000000000016</v>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>5.886999999999984</v>
-      </c>
-      <c r="N185" t="n">
-        <v>5.893333333333333</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,28 +7154,16 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J186" t="n">
-        <v>4.630000000000003</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-56.52173913043502</v>
-      </c>
-      <c r="L186" t="n">
-        <v>5.854000000000016</v>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>5.890999999999984</v>
-      </c>
-      <c r="N186" t="n">
-        <v>5.890333333333333</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9739,28 +7193,16 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J187" t="n">
-        <v>4.650000000000002</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L187" t="n">
-        <v>5.839000000000017</v>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>5.884999999999985</v>
-      </c>
-      <c r="N187" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9790,28 +7232,16 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.2399999999999993</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4.760000000000002</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5.835000000000018</v>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>5.884499999999985</v>
-      </c>
-      <c r="N188" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9838,31 +7268,21 @@
         <v>5.864499999999994</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.3499999999999996</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>4.870000000000003</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-30.43478260869559</v>
-      </c>
-      <c r="L189" t="n">
-        <v>5.820000000000019</v>
+        <v>5.79</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>5.878499999999986</v>
-      </c>
-      <c r="N189" t="n">
-        <v>5.884666666666665</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9892,28 +7312,16 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J190" t="n">
-        <v>4.970000000000002</v>
-      </c>
-      <c r="K190" t="n">
-        <v>23.80952380952373</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5.816000000000018</v>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>5.877499999999985</v>
-      </c>
-      <c r="N190" t="n">
-        <v>5.884333333333331</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9940,31 +7348,21 @@
         <v>5.867166666666661</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>4.980000000000002</v>
-      </c>
-      <c r="K191" t="n">
-        <v>14.99999999999992</v>
-      </c>
-      <c r="L191" t="n">
-        <v>5.825000000000019</v>
+        <v>5.88</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>5.875999999999985</v>
-      </c>
-      <c r="N191" t="n">
-        <v>5.883666666666665</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9994,28 +7392,16 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J192" t="n">
-        <v>4.980000000000002</v>
-      </c>
-      <c r="K192" t="n">
-        <v>24.32432432432434</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5.831000000000019</v>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>5.872499999999985</v>
-      </c>
-      <c r="N192" t="n">
-        <v>5.882999999999997</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10045,28 +7431,16 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J193" t="n">
-        <v>4.980000000000002</v>
-      </c>
-      <c r="K193" t="n">
-        <v>24.32432432432434</v>
-      </c>
-      <c r="L193" t="n">
-        <v>5.840000000000019</v>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>5.868999999999985</v>
-      </c>
-      <c r="N193" t="n">
-        <v>5.880666666666665</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10096,28 +7470,16 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.2599999999999998</v>
-      </c>
-      <c r="J194" t="n">
-        <v>4.980000000000002</v>
-      </c>
-      <c r="K194" t="n">
-        <v>24.32432432432434</v>
-      </c>
-      <c r="L194" t="n">
-        <v>5.84900000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>5.865499999999985</v>
-      </c>
-      <c r="N194" t="n">
-        <v>5.878333333333331</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10147,28 +7509,16 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5.050000000000002</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>5.85100000000002</v>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>5.858999999999985</v>
-      </c>
-      <c r="N195" t="n">
-        <v>5.874999999999998</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10198,28 +7548,16 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.3300000000000001</v>
-      </c>
-      <c r="J196" t="n">
-        <v>5.050000000000002</v>
-      </c>
-      <c r="K196" t="n">
-        <v>4.999999999999889</v>
-      </c>
-      <c r="L196" t="n">
-        <v>5.851000000000019</v>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>5.852499999999985</v>
-      </c>
-      <c r="N196" t="n">
-        <v>5.877666666666665</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10249,28 +7587,16 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.3399999999999999</v>
-      </c>
-      <c r="J197" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L197" t="n">
-        <v>5.852000000000019</v>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>5.845499999999985</v>
-      </c>
-      <c r="N197" t="n">
-        <v>5.873999999999999</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10297,31 +7623,21 @@
         <v>5.864666666666662</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K198" t="n">
-        <v>5.263157894736744</v>
-      </c>
-      <c r="L198" t="n">
-        <v>5.842000000000019</v>
+        <v>5.8</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M198" t="n">
-        <v>5.838499999999985</v>
-      </c>
-      <c r="N198" t="n">
-        <v>5.870333333333333</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10348,31 +7664,21 @@
         <v>5.863333333333329</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L199" t="n">
-        <v>5.84300000000002</v>
+        <v>5.8</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>5.831499999999985</v>
-      </c>
-      <c r="N199" t="n">
-        <v>5.866666666666666</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10399,31 +7705,21 @@
         <v>5.864666666666662</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>5.060000000000002</v>
-      </c>
-      <c r="K200" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L200" t="n">
-        <v>5.83400000000002</v>
+        <v>5.79</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M200" t="n">
-        <v>5.824999999999984</v>
-      </c>
-      <c r="N200" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10450,31 +7746,21 @@
         <v>5.864166666666662</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.3300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>5.070000000000002</v>
-      </c>
-      <c r="K201" t="n">
-        <v>-77.77777777777821</v>
-      </c>
-      <c r="L201" t="n">
-        <v>5.82700000000002</v>
+        <v>5.81</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>5.825999999999985</v>
-      </c>
-      <c r="N201" t="n">
-        <v>5.859666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10501,31 +7787,21 @@
         <v>5.863499999999997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>-0.3399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>5.080000000000002</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-80.00000000000036</v>
-      </c>
-      <c r="L202" t="n">
-        <v>5.81900000000002</v>
+        <v>5.8</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>5.824999999999984</v>
-      </c>
-      <c r="N202" t="n">
-        <v>5.854666666666668</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10552,31 +7828,21 @@
         <v>5.862333333333329</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>-0.3700000000000001</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>5.110000000000002</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-84.61538461538493</v>
-      </c>
-      <c r="L203" t="n">
-        <v>5.80800000000002</v>
+        <v>5.77</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>5.823999999999984</v>
-      </c>
-      <c r="N203" t="n">
-        <v>5.848666666666669</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10603,31 +7869,21 @@
         <v>5.861166666666663</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>-0.3700000000000001</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>5.110000000000002</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L204" t="n">
-        <v>5.79700000000002</v>
+        <v>5.81</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>5.822999999999984</v>
-      </c>
-      <c r="N204" t="n">
-        <v>5.84266666666667</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10654,31 +7910,21 @@
         <v>5.861833333333331</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>5.220000000000002</v>
-      </c>
-      <c r="K205" t="n">
-        <v>41.17647058823548</v>
-      </c>
-      <c r="L205" t="n">
-        <v>5.804000000000021</v>
+        <v>5.76</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>5.827499999999983</v>
-      </c>
-      <c r="N205" t="n">
-        <v>5.840666666666669</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10705,31 +7951,21 @@
         <v>5.862666666666664</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K206" t="n">
-        <v>52.94117647058817</v>
-      </c>
-      <c r="L206" t="n">
-        <v>5.812000000000021</v>
+        <v>5.88</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>5.831499999999982</v>
-      </c>
-      <c r="N206" t="n">
-        <v>5.839000000000002</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10756,31 +7992,21 @@
         <v>5.863666666666663</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K207" t="n">
-        <v>52.94117647058817</v>
-      </c>
-      <c r="L207" t="n">
-        <v>5.821000000000021</v>
+        <v>5.89</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>5.836499999999982</v>
-      </c>
-      <c r="N207" t="n">
-        <v>5.837333333333335</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10807,33 +8033,21 @@
         <v>5.864666666666664</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K208" t="n">
-        <v>52.94117647058817</v>
-      </c>
-      <c r="L208" t="n">
-        <v>5.830000000000021</v>
-      </c>
-      <c r="M208" t="n">
-        <v>5.835999999999983</v>
-      </c>
-      <c r="N208" t="n">
-        <v>5.835666666666668</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
+        <v>5.89</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -10858,31 +8072,23 @@
         <v>5.865666666666664</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>5.230000000000002</v>
+        <v>5.89</v>
       </c>
       <c r="K209" t="n">
-        <v>52.94117647058817</v>
-      </c>
-      <c r="L209" t="n">
-        <v>5.839000000000022</v>
+        <v>5.89</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>5.840999999999982</v>
-      </c>
-      <c r="N209" t="n">
-        <v>5.834000000000001</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10912,28 +8118,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J210" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K210" t="n">
-        <v>50</v>
-      </c>
-      <c r="L210" t="n">
-        <v>5.848000000000022</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>5.840999999999982</v>
-      </c>
-      <c r="N210" t="n">
-        <v>5.832666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10963,1099 +8153,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J211" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K211" t="n">
-        <v>59.99999999999977</v>
-      </c>
-      <c r="L211" t="n">
-        <v>5.856000000000021</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>5.841499999999982</v>
-      </c>
-      <c r="N211" t="n">
-        <v>5.836</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D212" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F212" t="n">
-        <v>697.4108</v>
-      </c>
-      <c r="G212" t="n">
-        <v>5.870833333333329</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J212" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K212" t="n">
-        <v>100</v>
-      </c>
-      <c r="L212" t="n">
-        <v>5.865000000000022</v>
-      </c>
-      <c r="M212" t="n">
-        <v>5.841999999999983</v>
-      </c>
-      <c r="N212" t="n">
-        <v>5.838333333333334</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F213" t="n">
-        <v>100</v>
-      </c>
-      <c r="G213" t="n">
-        <v>5.870833333333329</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="J213" t="n">
-        <v>5.230000000000002</v>
-      </c>
-      <c r="K213" t="n">
-        <v>100</v>
-      </c>
-      <c r="L213" t="n">
-        <v>5.877000000000022</v>
-      </c>
-      <c r="M213" t="n">
-        <v>5.842499999999982</v>
-      </c>
-      <c r="N213" t="n">
-        <v>5.841666666666667</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F214" t="n">
-        <v>435820.613</v>
-      </c>
-      <c r="G214" t="n">
-        <v>5.871666666666663</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J214" t="n">
-        <v>5.270000000000002</v>
-      </c>
-      <c r="K214" t="n">
-        <v>100</v>
-      </c>
-      <c r="L214" t="n">
-        <v>5.893000000000022</v>
-      </c>
-      <c r="M214" t="n">
-        <v>5.844999999999983</v>
-      </c>
-      <c r="N214" t="n">
-        <v>5.846333333333334</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E215" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F215" t="n">
-        <v>286.7032</v>
-      </c>
-      <c r="G215" t="n">
-        <v>5.872166666666663</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J215" t="n">
-        <v>5.270000000000002</v>
-      </c>
-      <c r="K215" t="n">
-        <v>100</v>
-      </c>
-      <c r="L215" t="n">
-        <v>5.898000000000021</v>
-      </c>
-      <c r="M215" t="n">
-        <v>5.850999999999983</v>
-      </c>
-      <c r="N215" t="n">
-        <v>5.851000000000001</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C216" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D216" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F216" t="n">
-        <v>426114.6179</v>
-      </c>
-      <c r="G216" t="n">
-        <v>5.874166666666664</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J216" t="n">
-        <v>5.360000000000002</v>
-      </c>
-      <c r="K216" t="n">
-        <v>100</v>
-      </c>
-      <c r="L216" t="n">
-        <v>5.911000000000021</v>
-      </c>
-      <c r="M216" t="n">
-        <v>5.861499999999984</v>
-      </c>
-      <c r="N216" t="n">
-        <v>5.858000000000001</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E217" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F217" t="n">
-        <v>804.9833</v>
-      </c>
-      <c r="G217" t="n">
-        <v>5.876333333333331</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J217" t="n">
-        <v>5.360000000000002</v>
-      </c>
-      <c r="K217" t="n">
-        <v>100</v>
-      </c>
-      <c r="L217" t="n">
-        <v>5.924000000000021</v>
-      </c>
-      <c r="M217" t="n">
-        <v>5.872499999999983</v>
-      </c>
-      <c r="N217" t="n">
-        <v>5.865666666666669</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E218" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F218" t="n">
-        <v>45883.4484</v>
-      </c>
-      <c r="G218" t="n">
-        <v>5.87833333333333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J218" t="n">
-        <v>5.360000000000002</v>
-      </c>
-      <c r="K218" t="n">
-        <v>100</v>
-      </c>
-      <c r="L218" t="n">
-        <v>5.937000000000021</v>
-      </c>
-      <c r="M218" t="n">
-        <v>5.883499999999983</v>
-      </c>
-      <c r="N218" t="n">
-        <v>5.869666666666669</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D219" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E219" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F219" t="n">
-        <v>307262.8748</v>
-      </c>
-      <c r="G219" t="n">
-        <v>5.883166666666663</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0.01000000000000068</v>
-      </c>
-      <c r="J219" t="n">
-        <v>5.490000000000003</v>
-      </c>
-      <c r="K219" t="n">
-        <v>100</v>
-      </c>
-      <c r="L219" t="n">
-        <v>5.963000000000021</v>
-      </c>
-      <c r="M219" t="n">
-        <v>5.900999999999984</v>
-      </c>
-      <c r="N219" t="n">
-        <v>5.881666666666669</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D220" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E220" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F220" t="n">
-        <v>316629.8729</v>
-      </c>
-      <c r="G220" t="n">
-        <v>5.887499999999998</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J220" t="n">
-        <v>5.500000000000003</v>
-      </c>
-      <c r="K220" t="n">
-        <v>100</v>
-      </c>
-      <c r="L220" t="n">
-        <v>5.990000000000021</v>
-      </c>
-      <c r="M220" t="n">
-        <v>5.918999999999984</v>
-      </c>
-      <c r="N220" t="n">
-        <v>5.89066666666667</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E221" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F221" t="n">
-        <v>109647.8896</v>
-      </c>
-      <c r="G221" t="n">
-        <v>5.891833333333332</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J221" t="n">
-        <v>5.500000000000003</v>
-      </c>
-      <c r="K221" t="n">
-        <v>100</v>
-      </c>
-      <c r="L221" t="n">
-        <v>6.01700000000002</v>
-      </c>
-      <c r="M221" t="n">
-        <v>5.936499999999983</v>
-      </c>
-      <c r="N221" t="n">
-        <v>5.900000000000003</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E222" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F222" t="n">
-        <v>11</v>
-      </c>
-      <c r="G222" t="n">
-        <v>5.896166666666665</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J222" t="n">
-        <v>5.500000000000003</v>
-      </c>
-      <c r="K222" t="n">
-        <v>100</v>
-      </c>
-      <c r="L222" t="n">
-        <v>6.04400000000002</v>
-      </c>
-      <c r="M222" t="n">
-        <v>5.954499999999983</v>
-      </c>
-      <c r="N222" t="n">
-        <v>5.909333333333336</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E223" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>5.898666666666666</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J223" t="n">
-        <v>5.560000000000003</v>
-      </c>
-      <c r="K223" t="n">
-        <v>58.6206896551722</v>
-      </c>
-      <c r="L223" t="n">
-        <v>6.065000000000019</v>
-      </c>
-      <c r="M223" t="n">
-        <v>5.970999999999983</v>
-      </c>
-      <c r="N223" t="n">
-        <v>5.91666666666667</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>51925.4428</v>
-      </c>
-      <c r="G224" t="n">
-        <v>5.901166666666667</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J224" t="n">
-        <v>5.560000000000003</v>
-      </c>
-      <c r="K224" t="n">
-        <v>58.6206896551722</v>
-      </c>
-      <c r="L224" t="n">
-        <v>6.082000000000019</v>
-      </c>
-      <c r="M224" t="n">
-        <v>5.987499999999983</v>
-      </c>
-      <c r="N224" t="n">
-        <v>5.924000000000003</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1385.5572</v>
-      </c>
-      <c r="G225" t="n">
-        <v>5.904333333333333</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J225" t="n">
-        <v>5.560000000000003</v>
-      </c>
-      <c r="K225" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L225" t="n">
-        <v>6.099000000000019</v>
-      </c>
-      <c r="M225" t="n">
-        <v>5.998499999999983</v>
-      </c>
-      <c r="N225" t="n">
-        <v>5.933666666666669</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F226" t="n">
-        <v>11</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5.910666666666667</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>-0.02999999999999936</v>
-      </c>
-      <c r="J226" t="n">
-        <v>5.570000000000004</v>
-      </c>
-      <c r="K226" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L226" t="n">
-        <v>6.10800000000002</v>
-      </c>
-      <c r="M226" t="n">
-        <v>6.009499999999983</v>
-      </c>
-      <c r="N226" t="n">
-        <v>5.94366666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>51907.4829</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5.913833333333333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J227" t="n">
-        <v>5.580000000000005</v>
-      </c>
-      <c r="K227" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="L227" t="n">
-        <v>6.116000000000019</v>
-      </c>
-      <c r="M227" t="n">
-        <v>6.019999999999983</v>
-      </c>
-      <c r="N227" t="n">
-        <v>5.953666666666669</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D228" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F228" t="n">
-        <v>729748.9257</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5.9175</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J228" t="n">
-        <v>5.610000000000005</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-16.66666666666679</v>
-      </c>
-      <c r="L228" t="n">
-        <v>6.127000000000019</v>
-      </c>
-      <c r="M228" t="n">
-        <v>6.031999999999982</v>
-      </c>
-      <c r="N228" t="n">
-        <v>5.964666666666669</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F229" t="n">
-        <v>6325.8241</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5.921166666666665</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J229" t="n">
-        <v>5.610000000000005</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-27.27272727272697</v>
-      </c>
-      <c r="L229" t="n">
-        <v>6.12500000000002</v>
-      </c>
-      <c r="M229" t="n">
-        <v>6.043999999999982</v>
-      </c>
-      <c r="N229" t="n">
-        <v>5.975666666666668</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F230" t="n">
-        <v>9362.5407</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.924999999999998</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>5.620000000000005</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-16.66666666666679</v>
-      </c>
-      <c r="L230" t="n">
-        <v>6.123000000000019</v>
-      </c>
-      <c r="M230" t="n">
-        <v>6.056499999999982</v>
-      </c>
-      <c r="N230" t="n">
-        <v>5.987</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E231" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F231" t="n">
-        <v>33127.0005</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.928833333333331</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>5.620000000000005</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-16.66666666666679</v>
-      </c>
-      <c r="L231" t="n">
-        <v>6.121000000000019</v>
-      </c>
-      <c r="M231" t="n">
-        <v>6.068999999999982</v>
-      </c>
-      <c r="N231" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F232" t="n">
-        <v>109962.2773</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.931833333333331</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J232" t="n">
-        <v>5.630000000000004</v>
-      </c>
-      <c r="K232" t="n">
-        <v>42.85714285714249</v>
-      </c>
-      <c r="L232" t="n">
-        <v>6.118000000000019</v>
-      </c>
-      <c r="M232" t="n">
-        <v>6.080999999999982</v>
-      </c>
-      <c r="N232" t="n">
-        <v>6.008999999999999</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -4791,13 +4791,17 @@
         <v>6.011333333333327</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K126" t="n">
+        <v>5.65</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4832,12 +4836,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>5.92</v>
+      </c>
+      <c r="K127" t="n">
+        <v>5.65</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -4867,16 +4873,20 @@
         <v>6.001999999999994</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5.65</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -4906,18 +4916,18 @@
         <v>5.997333333333328</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K129" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4945,16 +4955,20 @@
         <v>5.992499999999995</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5.92</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -4984,16 +4998,20 @@
         <v>5.984166666666662</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="K131" t="n">
+        <v>5.92</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5023,18 +5041,18 @@
         <v>5.979166666666662</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K132" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5068,10 +5086,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.7</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M133" t="n">
@@ -5107,10 +5127,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.7</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
@@ -5147,11 +5169,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5179,20 +5197,14 @@
         <v>5.956499999999995</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5227,11 +5239,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +5274,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5309,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5344,11 +5344,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5383,11 +5379,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5414,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +5449,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5484,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5519,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5578,11 +5554,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5610,20 +5582,14 @@
         <v>5.906333333333327</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5651,20 +5617,14 @@
         <v>5.902333333333328</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5692,20 +5652,14 @@
         <v>5.898333333333327</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5733,20 +5687,14 @@
         <v>5.892833333333328</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5774,20 +5722,14 @@
         <v>5.888499999999994</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5815,20 +5757,14 @@
         <v>5.884499999999994</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5856,20 +5792,14 @@
         <v>5.881999999999993</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5897,20 +5827,14 @@
         <v>5.879999999999994</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5938,20 +5862,14 @@
         <v>5.877333333333326</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5979,20 +5897,14 @@
         <v>5.874833333333326</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5939,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +5974,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +6009,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6144,11 +6044,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +6079,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6222,11 +6114,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6261,11 +6149,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6300,11 +6184,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6339,11 +6219,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +6254,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6417,11 +6289,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6324,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6359,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +6394,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6429,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6464,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6651,11 +6499,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6690,11 +6534,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6729,11 +6569,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6768,11 +6604,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6807,11 +6639,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6674,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6709,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6744,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6963,11 +6779,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6998,15 +6810,11 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7041,11 +6849,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7080,11 +6884,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7119,11 +6919,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +6954,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +6989,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7236,11 +7024,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7268,20 +7052,14 @@
         <v>5.864499999999994</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7316,11 +7094,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7348,20 +7122,14 @@
         <v>5.867166666666661</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7396,11 +7164,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +7199,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7234,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7269,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7552,11 +7304,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7591,11 +7339,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7623,20 +7367,14 @@
         <v>5.864666666666662</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7664,20 +7402,14 @@
         <v>5.863333333333329</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7705,20 +7437,14 @@
         <v>5.864666666666662</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7746,20 +7472,14 @@
         <v>5.864166666666662</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7787,20 +7507,14 @@
         <v>5.863499999999997</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7828,20 +7542,14 @@
         <v>5.862333333333329</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>5.77</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7869,20 +7577,14 @@
         <v>5.861166666666663</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>5.81</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7916,12 +7618,12 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -8036,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
         <v>5.89</v>
@@ -8044,10 +7746,12 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8072,20 +7776,16 @@
         <v>5.865666666666664</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K209" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M209" t="n">
@@ -8118,11 +7818,15 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8153,11 +7857,15 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>6.14</v>
       </c>
       <c r="F2" t="n">
-        <v>121.8888</v>
+        <v>206146.697</v>
       </c>
       <c r="G2" t="n">
-        <v>6.081999999999995</v>
+        <v>6.077666666666661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>6.14</v>
       </c>
       <c r="F3" t="n">
-        <v>44.4444</v>
+        <v>121.8888</v>
       </c>
       <c r="G3" t="n">
-        <v>6.086833333333328</v>
+        <v>6.081999999999995</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>6.14</v>
       </c>
       <c r="F4" t="n">
-        <v>37802.2801</v>
+        <v>44.4444</v>
       </c>
       <c r="G4" t="n">
-        <v>6.090999999999994</v>
+        <v>6.086833333333328</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>6.14</v>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>37802.2801</v>
       </c>
       <c r="G5" t="n">
-        <v>6.09566666666666</v>
+        <v>6.090999999999994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="C6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="E6" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="F6" t="n">
-        <v>13346.7524</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="n">
-        <v>6.099333333333328</v>
+        <v>6.09566666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>6.11</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>13346.7524</v>
       </c>
       <c r="G7" t="n">
-        <v>6.102833333333328</v>
+        <v>6.099333333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>6.11</v>
       </c>
       <c r="F8" t="n">
-        <v>2136.6979</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>6.103666666666661</v>
+        <v>6.102833333333328</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>6.11</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>2136.6979</v>
       </c>
       <c r="G9" t="n">
-        <v>6.104499999999995</v>
+        <v>6.103666666666661</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>6.11</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>6.105166666666662</v>
+        <v>6.104499999999995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="C11" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="D11" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="E11" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="F11" t="n">
-        <v>38460.1639</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>6.104833333333329</v>
+        <v>6.105166666666662</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="C12" t="n">
         <v>6.13</v>
@@ -792,13 +792,13 @@
         <v>6.13</v>
       </c>
       <c r="E12" t="n">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>38460.1639</v>
       </c>
       <c r="G12" t="n">
-        <v>6.105333333333329</v>
+        <v>6.104833333333329</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.09</v>
+        <v>6.13</v>
       </c>
       <c r="C13" t="n">
         <v>6.13</v>
@@ -827,13 +827,13 @@
         <v>6.13</v>
       </c>
       <c r="E13" t="n">
-        <v>6.07</v>
+        <v>6.13</v>
       </c>
       <c r="F13" t="n">
-        <v>151449.8361</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>6.105666666666662</v>
+        <v>6.105333333333329</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.13</v>
+        <v>6.09</v>
       </c>
       <c r="C14" t="n">
         <v>6.13</v>
@@ -862,13 +862,13 @@
         <v>6.13</v>
       </c>
       <c r="E14" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F14" t="n">
-        <v>607.5040783034258</v>
+        <v>151449.8361</v>
       </c>
       <c r="G14" t="n">
-        <v>6.107499999999995</v>
+        <v>6.105666666666662</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>6.13</v>
       </c>
       <c r="C15" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D15" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="E15" t="n">
         <v>6.13</v>
       </c>
       <c r="F15" t="n">
-        <v>11763.2483</v>
+        <v>607.5040783034258</v>
       </c>
       <c r="G15" t="n">
-        <v>6.109666666666661</v>
+        <v>6.107499999999995</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C16" t="n">
         <v>6.14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.13</v>
       </c>
       <c r="D16" t="n">
         <v>6.14</v>
@@ -935,10 +935,10 @@
         <v>6.13</v>
       </c>
       <c r="F16" t="n">
-        <v>144.3332</v>
+        <v>11763.2483</v>
       </c>
       <c r="G16" t="n">
-        <v>6.110499999999996</v>
+        <v>6.109666666666661</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="C17" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D17" t="n">
         <v>6.14</v>
       </c>
       <c r="E17" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="F17" t="n">
-        <v>98.95350000000001</v>
+        <v>144.3332</v>
       </c>
       <c r="G17" t="n">
-        <v>6.111666666666662</v>
+        <v>6.110499999999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="C18" t="n">
         <v>6.14</v>
@@ -1002,13 +1002,13 @@
         <v>6.14</v>
       </c>
       <c r="E18" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="F18" t="n">
-        <v>275.393</v>
+        <v>98.95350000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>6.112833333333328</v>
+        <v>6.111666666666662</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>6.14</v>
       </c>
       <c r="F19" t="n">
-        <v>44.4444</v>
+        <v>275.393</v>
       </c>
       <c r="G19" t="n">
-        <v>6.115833333333328</v>
+        <v>6.112833333333328</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>6.14</v>
       </c>
       <c r="F20" t="n">
-        <v>955.5556</v>
+        <v>44.4444</v>
       </c>
       <c r="G20" t="n">
-        <v>6.116999999999995</v>
+        <v>6.115833333333328</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>6.14</v>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>955.5556</v>
       </c>
       <c r="G21" t="n">
-        <v>6.118499999999995</v>
+        <v>6.116999999999995</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.14</v>
       </c>
       <c r="F22" t="n">
-        <v>47850.00006436758</v>
+        <v>150</v>
       </c>
       <c r="G22" t="n">
-        <v>6.119999999999994</v>
+        <v>6.118499999999995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="C23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="D23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="E23" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="F23" t="n">
-        <v>110</v>
+        <v>47850.00006436758</v>
       </c>
       <c r="G23" t="n">
-        <v>6.12166666666666</v>
+        <v>6.119999999999994</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>6.15</v>
       </c>
       <c r="F24" t="n">
-        <v>736873.0081</v>
+        <v>110</v>
       </c>
       <c r="G24" t="n">
-        <v>6.122999999999993</v>
+        <v>6.12166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>6.15</v>
       </c>
       <c r="F25" t="n">
-        <v>20886.0167</v>
+        <v>736873.0081</v>
       </c>
       <c r="G25" t="n">
-        <v>6.124333333333326</v>
+        <v>6.122999999999993</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>6.15</v>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>20886.0167</v>
       </c>
       <c r="G26" t="n">
-        <v>6.125666666666659</v>
+        <v>6.124333333333326</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>6.15</v>
       </c>
       <c r="F27" t="n">
-        <v>41278.1028</v>
+        <v>200</v>
       </c>
       <c r="G27" t="n">
-        <v>6.126999999999993</v>
+        <v>6.125666666666659</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>6.15</v>
       </c>
       <c r="F28" t="n">
-        <v>1511.5384</v>
+        <v>41278.1028</v>
       </c>
       <c r="G28" t="n">
-        <v>6.128333333333326</v>
+        <v>6.126999999999993</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>6.15</v>
       </c>
       <c r="F29" t="n">
-        <v>155.9191</v>
+        <v>1511.5384</v>
       </c>
       <c r="G29" t="n">
-        <v>6.129666666666659</v>
+        <v>6.128333333333326</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>6.15</v>
       </c>
       <c r="F30" t="n">
-        <v>162.3376</v>
+        <v>155.9191</v>
       </c>
       <c r="G30" t="n">
-        <v>6.130499999999992</v>
+        <v>6.129666666666659</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>6.15</v>
       </c>
       <c r="F31" t="n">
-        <v>89</v>
+        <v>162.3376</v>
       </c>
       <c r="G31" t="n">
-        <v>6.131333333333324</v>
+        <v>6.130499999999992</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>6.15</v>
       </c>
       <c r="F32" t="n">
-        <v>1350</v>
+        <v>89</v>
       </c>
       <c r="G32" t="n">
-        <v>6.132166666666657</v>
+        <v>6.131333333333324</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>6.15</v>
       </c>
       <c r="F33" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="G33" t="n">
-        <v>6.132999999999989</v>
+        <v>6.132166666666657</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>6.15</v>
       </c>
       <c r="F34" t="n">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="G34" t="n">
-        <v>6.133833333333322</v>
+        <v>6.132999999999989</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>6.15</v>
       </c>
       <c r="F35" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G35" t="n">
-        <v>6.134666666666654</v>
+        <v>6.133833333333322</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>6.15</v>
       </c>
       <c r="F36" t="n">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="n">
-        <v>6.135499999999987</v>
+        <v>6.134666666666654</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>6.15</v>
       </c>
       <c r="F37" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="G37" t="n">
-        <v>6.13633333333332</v>
+        <v>6.135499999999987</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>6.15</v>
       </c>
       <c r="F38" t="n">
-        <v>8600</v>
+        <v>6000</v>
       </c>
       <c r="G38" t="n">
-        <v>6.136999999999985</v>
+        <v>6.13633333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>6.15</v>
       </c>
       <c r="F39" t="n">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G39" t="n">
-        <v>6.137166666666652</v>
+        <v>6.136999999999985</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>6.15</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>8400</v>
       </c>
       <c r="G40" t="n">
-        <v>6.137333333333318</v>
+        <v>6.137166666666652</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>6.137499999999985</v>
+        <v>6.137333333333318</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C42" t="n">
         <v>6.15</v>
@@ -1842,13 +1842,13 @@
         <v>6.15</v>
       </c>
       <c r="E42" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F42" t="n">
-        <v>94306.61500000001</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>6.138166666666651</v>
+        <v>6.137499999999985</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="C43" t="n">
         <v>6.15</v>
@@ -1877,13 +1877,13 @@
         <v>6.15</v>
       </c>
       <c r="E43" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="F43" t="n">
-        <v>16260.1626</v>
+        <v>94306.61500000001</v>
       </c>
       <c r="G43" t="n">
-        <v>6.138333333333318</v>
+        <v>6.138166666666651</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C44" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D44" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E44" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F44" t="n">
-        <v>174.1321</v>
+        <v>16260.1626</v>
       </c>
       <c r="G44" t="n">
-        <v>6.138666666666651</v>
+        <v>6.138333333333318</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="C45" t="n">
         <v>6.16</v>
@@ -1947,13 +1947,13 @@
         <v>6.16</v>
       </c>
       <c r="E45" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>174.1321</v>
       </c>
       <c r="G45" t="n">
-        <v>6.138999999999985</v>
+        <v>6.138666666666651</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="C46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="D46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="E46" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="F46" t="n">
-        <v>100.5</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>6.138833333333319</v>
+        <v>6.138999999999985</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="C47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="D47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="E47" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>100.5</v>
       </c>
       <c r="G47" t="n">
-        <v>6.139166666666653</v>
+        <v>6.138833333333319</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>6.16</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>6.139499999999987</v>
+        <v>6.139166666666653</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>6.16</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>6.13983333333332</v>
+        <v>6.139499999999987</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>6.16</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>6.140166666666655</v>
+        <v>6.13983333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>6.16</v>
       </c>
       <c r="F51" t="n">
-        <v>353.4090909090909</v>
+        <v>29</v>
       </c>
       <c r="G51" t="n">
-        <v>6.140499999999989</v>
+        <v>6.140166666666655</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>6.16</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>353.4090909090909</v>
       </c>
       <c r="G52" t="n">
-        <v>6.140833333333322</v>
+        <v>6.140499999999989</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>6.16</v>
       </c>
       <c r="F53" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>6.141166666666657</v>
+        <v>6.140833333333322</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>6.16</v>
       </c>
       <c r="F54" t="n">
-        <v>196.7532</v>
+        <v>52</v>
       </c>
       <c r="G54" t="n">
-        <v>6.141499999999991</v>
+        <v>6.141166666666657</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>6.16</v>
       </c>
       <c r="F55" t="n">
-        <v>2634.4686</v>
+        <v>196.7532</v>
       </c>
       <c r="G55" t="n">
-        <v>6.141833333333325</v>
+        <v>6.141499999999991</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>6.16</v>
       </c>
       <c r="F56" t="n">
-        <v>55.4444</v>
+        <v>2634.4686</v>
       </c>
       <c r="G56" t="n">
-        <v>6.142166666666658</v>
+        <v>6.141833333333325</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C57" t="n">
         <v>6.16</v>
@@ -2367,13 +2367,13 @@
         <v>6.16</v>
       </c>
       <c r="E57" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F57" t="n">
-        <v>1199.4404</v>
+        <v>55.4444</v>
       </c>
       <c r="G57" t="n">
-        <v>6.142999999999992</v>
+        <v>6.142166666666658</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="C58" t="n">
         <v>6.16</v>
@@ -2402,13 +2402,13 @@
         <v>6.16</v>
       </c>
       <c r="E58" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="F58" t="n">
-        <v>403.0121</v>
+        <v>1199.4404</v>
       </c>
       <c r="G58" t="n">
-        <v>6.144333333333326</v>
+        <v>6.142999999999992</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>6.16</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>403.0121</v>
       </c>
       <c r="G59" t="n">
-        <v>6.144833333333326</v>
+        <v>6.144333333333326</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>6.16</v>
       </c>
       <c r="F60" t="n">
-        <v>84.41549999999999</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>6.145333333333327</v>
+        <v>6.144833333333326</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>6.16</v>
       </c>
       <c r="F61" t="n">
-        <v>48967.6447987013</v>
+        <v>84.41549999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>6.145666666666661</v>
+        <v>6.145333333333327</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>6.16</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0389610389612e-05</v>
+        <v>48967.6447987013</v>
       </c>
       <c r="G62" t="n">
-        <v>6.145999999999995</v>
+        <v>6.145666666666661</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="C63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="D63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="E63" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="F63" t="n">
-        <v>273.2825</v>
+        <v>1.0389610389612e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>6.146666666666662</v>
+        <v>6.145999999999995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>6.18</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D64" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E64" t="n">
         <v>6.18</v>
       </c>
       <c r="F64" t="n">
-        <v>46667.6163</v>
+        <v>273.2825</v>
       </c>
       <c r="G64" t="n">
-        <v>6.147666666666662</v>
+        <v>6.146666666666662</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C65" t="n">
         <v>6.2</v>
@@ -2647,13 +2647,13 @@
         <v>6.2</v>
       </c>
       <c r="E65" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F65" t="n">
-        <v>30387.74193548387</v>
+        <v>46667.6163</v>
       </c>
       <c r="G65" t="n">
-        <v>6.148666666666662</v>
+        <v>6.147666666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>6.2</v>
       </c>
       <c r="F66" t="n">
-        <v>743.5699</v>
+        <v>30387.74193548387</v>
       </c>
       <c r="G66" t="n">
-        <v>6.150166666666662</v>
+        <v>6.148666666666662</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>6.2</v>
       </c>
       <c r="F67" t="n">
-        <v>143.3332</v>
+        <v>743.5699</v>
       </c>
       <c r="G67" t="n">
-        <v>6.151666666666661</v>
+        <v>6.150166666666662</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>6.2</v>
       </c>
       <c r="F68" t="n">
-        <v>58.0645</v>
+        <v>143.3332</v>
       </c>
       <c r="G68" t="n">
-        <v>6.153166666666661</v>
+        <v>6.151666666666661</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>6.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>58.0645</v>
       </c>
       <c r="G69" t="n">
-        <v>6.15466666666666</v>
+        <v>6.153166666666661</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>6.2</v>
       </c>
       <c r="F70" t="n">
-        <v>488.6023</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>6.15616666666666</v>
+        <v>6.15466666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>6.2</v>
       </c>
       <c r="F71" t="n">
-        <v>255.4444</v>
+        <v>488.6023</v>
       </c>
       <c r="G71" t="n">
-        <v>6.157333333333327</v>
+        <v>6.15616666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="C72" t="n">
         <v>6.2</v>
@@ -2892,13 +2892,13 @@
         <v>6.2</v>
       </c>
       <c r="E72" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F72" t="n">
-        <v>425.5059</v>
+        <v>255.4444</v>
       </c>
       <c r="G72" t="n">
-        <v>6.158499999999993</v>
+        <v>6.157333333333327</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="C73" t="n">
         <v>6.2</v>
@@ -2927,13 +2927,13 @@
         <v>6.2</v>
       </c>
       <c r="E73" t="n">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="F73" t="n">
-        <v>88.8888</v>
+        <v>425.5059</v>
       </c>
       <c r="G73" t="n">
-        <v>6.15966666666666</v>
+        <v>6.158499999999993</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>6.2</v>
       </c>
       <c r="F74" t="n">
-        <v>10000</v>
+        <v>88.8888</v>
       </c>
       <c r="G74" t="n">
-        <v>6.160833333333327</v>
+        <v>6.15966666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="C75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E75" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F75" t="n">
-        <v>13009.1576</v>
+        <v>10000</v>
       </c>
       <c r="G75" t="n">
-        <v>6.16116666666666</v>
+        <v>6.160833333333327</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="D76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E76" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F76" t="n">
-        <v>67006.7813</v>
+        <v>13009.1576</v>
       </c>
       <c r="G76" t="n">
-        <v>6.161499999999993</v>
+        <v>6.16116666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="D77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="E77" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F77" t="n">
-        <v>37831.4064</v>
+        <v>67006.7813</v>
       </c>
       <c r="G77" t="n">
-        <v>6.161333333333327</v>
+        <v>6.161499999999993</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>6.13</v>
       </c>
       <c r="F78" t="n">
-        <v>10094.0726</v>
+        <v>37831.4064</v>
       </c>
       <c r="G78" t="n">
-        <v>6.16116666666666</v>
+        <v>6.161333333333327</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="C79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="D79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="E79" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>10094.0726</v>
       </c>
       <c r="G79" t="n">
-        <v>6.161333333333327</v>
+        <v>6.16116666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>6.15</v>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>6.161499999999993</v>
+        <v>6.161333333333327</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>6.15</v>
       </c>
       <c r="F81" t="n">
-        <v>73.8</v>
+        <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>6.16166666666666</v>
+        <v>6.161499999999993</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="C82" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D82" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="E82" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F82" t="n">
-        <v>37470.509</v>
+        <v>73.8</v>
       </c>
       <c r="G82" t="n">
-        <v>6.160999999999993</v>
+        <v>6.16166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="C83" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="D83" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="E83" t="n">
-        <v>6.14</v>
+        <v>6.1</v>
       </c>
       <c r="F83" t="n">
-        <v>110</v>
+        <v>37470.509</v>
       </c>
       <c r="G83" t="n">
-        <v>6.160833333333327</v>
+        <v>6.160999999999993</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="C84" t="n">
-        <v>6.09</v>
+        <v>6.14</v>
       </c>
       <c r="D84" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="E84" t="n">
-        <v>6.09</v>
+        <v>6.14</v>
       </c>
       <c r="F84" t="n">
-        <v>132415.6355</v>
+        <v>110</v>
       </c>
       <c r="G84" t="n">
-        <v>6.159833333333327</v>
+        <v>6.160833333333327</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C85" t="n">
         <v>6.09</v>
       </c>
-      <c r="C85" t="n">
-        <v>6.07</v>
-      </c>
       <c r="D85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E85" t="n">
         <v>6.09</v>
       </c>
-      <c r="E85" t="n">
-        <v>6.07</v>
-      </c>
       <c r="F85" t="n">
-        <v>375039.1495</v>
+        <v>132415.6355</v>
       </c>
       <c r="G85" t="n">
-        <v>6.158499999999994</v>
+        <v>6.159833333333327</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="C86" t="n">
         <v>6.07</v>
       </c>
       <c r="D86" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="E86" t="n">
         <v>6.07</v>
       </c>
       <c r="F86" t="n">
-        <v>14277.4286</v>
+        <v>375039.1495</v>
       </c>
       <c r="G86" t="n">
-        <v>6.157166666666661</v>
+        <v>6.158499999999994</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="C87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="D87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="E87" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="F87" t="n">
-        <v>42970.8586</v>
+        <v>14277.4286</v>
       </c>
       <c r="G87" t="n">
-        <v>6.155666666666662</v>
+        <v>6.157166666666661</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="C88" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D88" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E88" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="F88" t="n">
-        <v>263821.1866</v>
+        <v>42970.8586</v>
       </c>
       <c r="G88" t="n">
-        <v>6.154333333333328</v>
+        <v>6.155666666666662</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.07</v>
+        <v>6.05</v>
       </c>
       <c r="C89" t="n">
         <v>6.07</v>
@@ -3487,13 +3487,13 @@
         <v>6.07</v>
       </c>
       <c r="E89" t="n">
-        <v>6.07</v>
+        <v>6.05</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>263821.1866</v>
       </c>
       <c r="G89" t="n">
-        <v>6.152999999999995</v>
+        <v>6.154333333333328</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>6.151666666666662</v>
+        <v>6.152999999999995</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C91" t="n">
         <v>6.07</v>
@@ -3557,13 +3557,13 @@
         <v>6.07</v>
       </c>
       <c r="E91" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F91" t="n">
-        <v>93319.5419</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>6.15033333333333</v>
+        <v>6.151666666666662</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>6.05</v>
       </c>
       <c r="C92" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="D92" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E92" t="n">
         <v>6.05</v>
       </c>
       <c r="F92" t="n">
-        <v>61605.6332</v>
+        <v>93319.5419</v>
       </c>
       <c r="G92" t="n">
-        <v>6.148666666666663</v>
+        <v>6.15033333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="E93" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F93" t="n">
-        <v>660</v>
+        <v>61605.6332</v>
       </c>
       <c r="G93" t="n">
-        <v>6.146833333333331</v>
+        <v>6.148666666666663</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.97</v>
+        <v>6.04</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D94" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E94" t="n">
-        <v>5.85</v>
+        <v>6.04</v>
       </c>
       <c r="F94" t="n">
-        <v>2100020</v>
+        <v>660</v>
       </c>
       <c r="G94" t="n">
-        <v>6.144333333333331</v>
+        <v>6.146833333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.06</v>
+        <v>5.97</v>
       </c>
       <c r="C95" t="n">
-        <v>6.06</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="E95" t="n">
-        <v>6.06</v>
+        <v>5.85</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>2100020</v>
       </c>
       <c r="G95" t="n">
-        <v>6.142833333333331</v>
+        <v>6.144333333333331</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="C96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="D96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="E96" t="n">
-        <v>6.05</v>
+        <v>6.06</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>6.141166666666665</v>
+        <v>6.142833333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>6.05</v>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>6.139499999999999</v>
+        <v>6.141166666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="D98" t="n">
-        <v>5.96</v>
+        <v>6.05</v>
       </c>
       <c r="E98" t="n">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="F98" t="n">
-        <v>303071.9831</v>
+        <v>200</v>
       </c>
       <c r="G98" t="n">
-        <v>6.136166666666666</v>
+        <v>6.139499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="C99" t="n">
         <v>5.95</v>
       </c>
       <c r="D99" t="n">
-        <v>5.95</v>
+        <v>5.96</v>
       </c>
       <c r="E99" t="n">
         <v>5.95</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>303071.9831</v>
       </c>
       <c r="G99" t="n">
-        <v>6.132833333333333</v>
+        <v>6.136166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>5.95</v>
       </c>
       <c r="F100" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>6.129499999999999</v>
+        <v>6.132833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="C101" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="D101" t="n">
-        <v>5.92</v>
+        <v>5.95</v>
       </c>
       <c r="E101" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F101" t="n">
-        <v>88969.47229999999</v>
+        <v>1100</v>
       </c>
       <c r="G101" t="n">
-        <v>6.125333333333333</v>
+        <v>6.129499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C102" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D102" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E102" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>88969.47229999999</v>
       </c>
       <c r="G102" t="n">
-        <v>6.121833333333333</v>
+        <v>6.125333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>5.94</v>
       </c>
       <c r="F103" t="n">
-        <v>44.6127</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>6.118333333333334</v>
+        <v>6.121833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>5.94</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>44.6127</v>
       </c>
       <c r="G104" t="n">
-        <v>6.114666666666666</v>
+        <v>6.118333333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E105" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F105" t="n">
-        <v>52379.7421</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>6.110333333333332</v>
+        <v>6.114666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E106" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>52379.7421</v>
       </c>
       <c r="G106" t="n">
-        <v>6.107166666666666</v>
+        <v>6.110333333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E107" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F107" t="n">
-        <v>145126.8362</v>
+        <v>20</v>
       </c>
       <c r="G107" t="n">
-        <v>6.102833333333332</v>
+        <v>6.107166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E108" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>145126.8362</v>
       </c>
       <c r="G108" t="n">
-        <v>6.099166666666664</v>
+        <v>6.102833333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E109" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F109" t="n">
-        <v>476.4214</v>
+        <v>20</v>
       </c>
       <c r="G109" t="n">
-        <v>6.09483333333333</v>
+        <v>6.099166666666664</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="D110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="E110" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1010</v>
+        <v>476.4214</v>
       </c>
       <c r="G110" t="n">
-        <v>6.091166666666664</v>
+        <v>6.09483333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E111" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F111" t="n">
-        <v>435.1107</v>
+        <v>1010</v>
       </c>
       <c r="G111" t="n">
-        <v>6.08733333333333</v>
+        <v>6.091166666666664</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E112" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>435.1107</v>
       </c>
       <c r="G112" t="n">
-        <v>6.083833333333329</v>
+        <v>6.08733333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="C113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="D113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="E113" t="n">
-        <v>5.93</v>
+        <v>5.95</v>
       </c>
       <c r="F113" t="n">
-        <v>145688.6667</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>6.079999999999996</v>
+        <v>6.083833333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="C114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="D114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="E114" t="n">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="F114" t="n">
-        <v>1531.9327</v>
+        <v>145688.6667</v>
       </c>
       <c r="G114" t="n">
-        <v>6.076499999999995</v>
+        <v>6.079999999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="C115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E115" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>1531.9327</v>
       </c>
       <c r="G115" t="n">
-        <v>6.072833333333327</v>
+        <v>6.076499999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>5.94</v>
       </c>
       <c r="F116" t="n">
-        <v>1100</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>6.069166666666661</v>
+        <v>6.072833333333327</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E117" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G117" t="n">
-        <v>6.065333333333327</v>
+        <v>6.069166666666661</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="C118" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="D118" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="E118" t="n">
-        <v>5.9</v>
+        <v>5.93</v>
       </c>
       <c r="F118" t="n">
-        <v>207785.9771</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>6.061333333333327</v>
+        <v>6.065333333333327</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C119" t="n">
-        <v>5.85</v>
+        <v>5.92</v>
       </c>
       <c r="D119" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="E119" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="F119" t="n">
-        <v>473727.4623</v>
+        <v>207785.9771</v>
       </c>
       <c r="G119" t="n">
-        <v>6.05616666666666</v>
+        <v>6.061333333333327</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="C120" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="D120" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E120" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="F120" t="n">
-        <v>173233.7068</v>
+        <v>473727.4623</v>
       </c>
       <c r="G120" t="n">
-        <v>6.05016666666666</v>
+        <v>6.05616666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>5.8</v>
       </c>
       <c r="C121" t="n">
-        <v>5.93</v>
+        <v>5.8</v>
       </c>
       <c r="D121" t="n">
-        <v>5.93</v>
+        <v>5.8</v>
       </c>
       <c r="E121" t="n">
         <v>5.8</v>
       </c>
       <c r="F121" t="n">
-        <v>2045.9625</v>
+        <v>173233.7068</v>
       </c>
       <c r="G121" t="n">
-        <v>6.046333333333326</v>
+        <v>6.05016666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C122" t="n">
-        <v>5.7</v>
+        <v>5.93</v>
       </c>
       <c r="D122" t="n">
-        <v>5.7</v>
+        <v>5.93</v>
       </c>
       <c r="E122" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F122" t="n">
-        <v>231634.4815</v>
+        <v>2045.9625</v>
       </c>
       <c r="G122" t="n">
-        <v>6.038666666666659</v>
+        <v>6.046333333333326</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>5.7</v>
       </c>
       <c r="C123" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="D123" t="n">
         <v>5.7</v>
       </c>
       <c r="E123" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="F123" t="n">
-        <v>112369.8095</v>
+        <v>231634.4815</v>
       </c>
       <c r="G123" t="n">
-        <v>6.029999999999992</v>
+        <v>6.038666666666659</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="C124" t="n">
-        <v>5.91</v>
+        <v>5.66</v>
       </c>
       <c r="D124" t="n">
-        <v>5.91</v>
+        <v>5.7</v>
       </c>
       <c r="E124" t="n">
-        <v>5.91</v>
+        <v>5.66</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>112369.8095</v>
       </c>
       <c r="G124" t="n">
-        <v>6.02516666666666</v>
+        <v>6.029999999999992</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="C125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="D125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="E125" t="n">
-        <v>5.65</v>
+        <v>5.91</v>
       </c>
       <c r="F125" t="n">
-        <v>3272.127</v>
+        <v>10</v>
       </c>
       <c r="G125" t="n">
-        <v>6.015999999999993</v>
+        <v>6.02516666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,35 +4773,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.91</v>
+        <v>5.65</v>
       </c>
       <c r="C126" t="n">
-        <v>5.92</v>
+        <v>5.65</v>
       </c>
       <c r="D126" t="n">
-        <v>5.92</v>
+        <v>5.65</v>
       </c>
       <c r="E126" t="n">
-        <v>5.91</v>
+        <v>5.65</v>
       </c>
       <c r="F126" t="n">
-        <v>12462.077</v>
+        <v>3272.127</v>
       </c>
       <c r="G126" t="n">
-        <v>6.011333333333327</v>
+        <v>6.015999999999993</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4824,28 +4820,20 @@
         <v>5.91</v>
       </c>
       <c r="F127" t="n">
-        <v>63819.9287</v>
+        <v>12462.077</v>
       </c>
       <c r="G127" t="n">
-        <v>6.006666666666661</v>
+        <v>6.011333333333327</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4855,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="C128" t="n">
         <v>5.92</v>
@@ -4864,31 +4852,23 @@
         <v>5.92</v>
       </c>
       <c r="E128" t="n">
-        <v>5.92</v>
+        <v>5.91</v>
       </c>
       <c r="F128" t="n">
-        <v>100</v>
+        <v>63819.9287</v>
       </c>
       <c r="G128" t="n">
-        <v>6.001999999999994</v>
+        <v>6.006666666666661</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4913,20 +4893,16 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>5.997333333333328</v>
+        <v>6.001999999999994</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -4937,40 +4913,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="C130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="D130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E130" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="F130" t="n">
-        <v>221065.7438</v>
+        <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>5.992499999999995</v>
+        <v>5.997333333333328</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4980,40 +4948,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="C131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="D131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="E131" t="n">
-        <v>5.7</v>
+        <v>5.91</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>221065.7438</v>
       </c>
       <c r="G131" t="n">
-        <v>5.984166666666662</v>
+        <v>5.992499999999995</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5023,35 +4983,31 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="C132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="E132" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F132" t="n">
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>5.979166666666662</v>
+        <v>5.984166666666662</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
@@ -5074,10 +5030,10 @@
         <v>5.9</v>
       </c>
       <c r="F133" t="n">
-        <v>1099.8983</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>5.974166666666662</v>
+        <v>5.979166666666662</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5086,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5103,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="E134" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="F134" t="n">
-        <v>3280</v>
+        <v>1099.8983</v>
       </c>
       <c r="G134" t="n">
-        <v>5.965833333333328</v>
+        <v>5.974166666666662</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5127,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5144,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="C135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="D135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="E135" t="n">
-        <v>5.87</v>
+        <v>5.7</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>3280</v>
       </c>
       <c r="G135" t="n">
-        <v>5.960999999999995</v>
+        <v>5.965833333333328</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5182,19 +5126,19 @@
         <v>5.87</v>
       </c>
       <c r="C136" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D136" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E136" t="n">
         <v>5.87</v>
       </c>
       <c r="F136" t="n">
-        <v>2794.9593</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>5.956499999999995</v>
+        <v>5.960999999999995</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5214,7 +5158,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C137" t="n">
         <v>5.88</v>
@@ -5223,13 +5167,13 @@
         <v>5.88</v>
       </c>
       <c r="E137" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F137" t="n">
-        <v>77.551</v>
+        <v>2794.9593</v>
       </c>
       <c r="G137" t="n">
-        <v>5.952333333333328</v>
+        <v>5.956499999999995</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5261,10 +5205,10 @@
         <v>5.88</v>
       </c>
       <c r="F138" t="n">
-        <v>13628.7414</v>
+        <v>77.551</v>
       </c>
       <c r="G138" t="n">
-        <v>5.948166666666662</v>
+        <v>5.952333333333328</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5296,10 +5240,10 @@
         <v>5.88</v>
       </c>
       <c r="F139" t="n">
-        <v>170.068</v>
+        <v>13628.7414</v>
       </c>
       <c r="G139" t="n">
-        <v>5.943666666666662</v>
+        <v>5.948166666666662</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5319,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="C140" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="D140" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="E140" t="n">
-        <v>5.72</v>
+        <v>5.88</v>
       </c>
       <c r="F140" t="n">
-        <v>808346.5201</v>
+        <v>170.068</v>
       </c>
       <c r="G140" t="n">
-        <v>5.936499999999996</v>
+        <v>5.943666666666662</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5354,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="C141" t="n">
-        <v>5.84</v>
+        <v>5.72</v>
       </c>
       <c r="D141" t="n">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="E141" t="n">
-        <v>5.84</v>
+        <v>5.72</v>
       </c>
       <c r="F141" t="n">
-        <v>93</v>
+        <v>808346.5201</v>
       </c>
       <c r="G141" t="n">
-        <v>5.931333333333329</v>
+        <v>5.936499999999996</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5401,10 +5345,10 @@
         <v>5.84</v>
       </c>
       <c r="F142" t="n">
-        <v>5916.593473972603</v>
+        <v>93</v>
       </c>
       <c r="G142" t="n">
-        <v>5.926999999999995</v>
+        <v>5.931333333333329</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5436,10 +5380,10 @@
         <v>5.84</v>
       </c>
       <c r="F143" t="n">
-        <v>228.9453</v>
+        <v>5916.593473972603</v>
       </c>
       <c r="G143" t="n">
-        <v>5.921999999999995</v>
+        <v>5.926999999999995</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5471,10 +5415,10 @@
         <v>5.84</v>
       </c>
       <c r="F144" t="n">
-        <v>44.4444</v>
+        <v>228.9453</v>
       </c>
       <c r="G144" t="n">
-        <v>5.917833333333329</v>
+        <v>5.921999999999995</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5506,10 +5450,10 @@
         <v>5.84</v>
       </c>
       <c r="F145" t="n">
-        <v>7866.6668</v>
+        <v>44.4444</v>
       </c>
       <c r="G145" t="n">
-        <v>5.913999999999995</v>
+        <v>5.917833333333329</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5541,10 +5485,10 @@
         <v>5.84</v>
       </c>
       <c r="F146" t="n">
-        <v>225</v>
+        <v>7866.6668</v>
       </c>
       <c r="G146" t="n">
-        <v>5.910166666666661</v>
+        <v>5.913999999999995</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5564,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E147" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F147" t="n">
-        <v>3113.2075</v>
+        <v>225</v>
       </c>
       <c r="G147" t="n">
-        <v>5.906333333333327</v>
+        <v>5.910166666666661</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5611,10 +5555,10 @@
         <v>5.83</v>
       </c>
       <c r="F148" t="n">
-        <v>9339.688</v>
+        <v>3113.2075</v>
       </c>
       <c r="G148" t="n">
-        <v>5.902333333333328</v>
+        <v>5.906333333333327</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5646,10 +5590,10 @@
         <v>5.83</v>
       </c>
       <c r="F149" t="n">
-        <v>92.2945</v>
+        <v>9339.688</v>
       </c>
       <c r="G149" t="n">
-        <v>5.898333333333327</v>
+        <v>5.902333333333328</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5669,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="C150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="D150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="E150" t="n">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="F150" t="n">
-        <v>10000</v>
+        <v>92.2945</v>
       </c>
       <c r="G150" t="n">
-        <v>5.892833333333328</v>
+        <v>5.898333333333327</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5704,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="C151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="D151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="E151" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="F151" t="n">
-        <v>172.1170395869191</v>
+        <v>10000</v>
       </c>
       <c r="G151" t="n">
-        <v>5.888499999999994</v>
+        <v>5.892833333333328</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5751,10 +5695,10 @@
         <v>5.81</v>
       </c>
       <c r="F152" t="n">
-        <v>1750.1719</v>
+        <v>172.1170395869191</v>
       </c>
       <c r="G152" t="n">
-        <v>5.884499999999994</v>
+        <v>5.888499999999994</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5777,19 +5721,19 @@
         <v>5.81</v>
       </c>
       <c r="C153" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="D153" t="n">
-        <v>5.89</v>
+        <v>5.81</v>
       </c>
       <c r="E153" t="n">
         <v>5.81</v>
       </c>
       <c r="F153" t="n">
-        <v>42162.94858672887</v>
+        <v>1750.1719</v>
       </c>
       <c r="G153" t="n">
-        <v>5.881999999999993</v>
+        <v>5.884499999999994</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5809,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="C154" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D154" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E154" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="F154" t="n">
-        <v>72262.58500000001</v>
+        <v>42162.94858672887</v>
       </c>
       <c r="G154" t="n">
-        <v>5.879999999999994</v>
+        <v>5.881999999999993</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5844,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C155" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="D155" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="E155" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F155" t="n">
-        <v>71686.34697368421</v>
+        <v>72262.58500000001</v>
       </c>
       <c r="G155" t="n">
-        <v>5.877333333333326</v>
+        <v>5.879999999999994</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5879,7 +5823,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C156" t="n">
         <v>5.9</v>
@@ -5888,13 +5832,13 @@
         <v>5.9</v>
       </c>
       <c r="E156" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F156" t="n">
-        <v>108026.4406</v>
+        <v>71686.34697368421</v>
       </c>
       <c r="G156" t="n">
-        <v>5.874833333333326</v>
+        <v>5.877333333333326</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5914,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="C157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="D157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="E157" t="n">
-        <v>5.89</v>
+        <v>5.9</v>
       </c>
       <c r="F157" t="n">
-        <v>36534.50012631579</v>
+        <v>108026.4406</v>
       </c>
       <c r="G157" t="n">
-        <v>5.872166666666659</v>
+        <v>5.874833333333326</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5949,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="D158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="E158" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F158" t="n">
-        <v>136.5932</v>
+        <v>36534.50012631579</v>
       </c>
       <c r="G158" t="n">
-        <v>5.871333333333325</v>
+        <v>5.872166666666659</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5984,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="C159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="E159" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F159" t="n">
-        <v>154.3811</v>
+        <v>136.5932</v>
       </c>
       <c r="G159" t="n">
-        <v>5.869833333333326</v>
+        <v>5.871333333333325</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6019,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="C160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="D160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="E160" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>154.3811</v>
       </c>
       <c r="G160" t="n">
-        <v>5.868999999999992</v>
+        <v>5.869833333333326</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6066,7 +6010,7 @@
         <v>5.9</v>
       </c>
       <c r="F161" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
         <v>5.868999999999992</v>
@@ -6101,10 +6045,10 @@
         <v>5.9</v>
       </c>
       <c r="F162" t="n">
-        <v>11425.4976</v>
+        <v>28</v>
       </c>
       <c r="G162" t="n">
-        <v>5.868333333333325</v>
+        <v>5.868999999999992</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6124,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="C163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="D163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="E163" t="n">
-        <v>5.95</v>
+        <v>5.9</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>11425.4976</v>
       </c>
       <c r="G163" t="n">
-        <v>5.868499999999992</v>
+        <v>5.868333333333325</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6159,7 +6103,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="C164" t="n">
         <v>5.95</v>
@@ -6168,13 +6112,13 @@
         <v>5.95</v>
       </c>
       <c r="E164" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="F164" t="n">
-        <v>5185.4178</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>5.868666666666658</v>
+        <v>5.868499999999992</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6194,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="C165" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="D165" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="E165" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="F165" t="n">
-        <v>6946.1785</v>
+        <v>5185.4178</v>
       </c>
       <c r="G165" t="n">
-        <v>5.868833333333326</v>
+        <v>5.868666666666658</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6229,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="C166" t="n">
-        <v>5.73</v>
+        <v>5.91</v>
       </c>
       <c r="D166" t="n">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="E166" t="n">
-        <v>5.73</v>
+        <v>5.91</v>
       </c>
       <c r="F166" t="n">
-        <v>128177.5066</v>
+        <v>6946.1785</v>
       </c>
       <c r="G166" t="n">
-        <v>5.865333333333326</v>
+        <v>5.868833333333326</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6264,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="C167" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="D167" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="E167" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="F167" t="n">
-        <v>11</v>
+        <v>128177.5066</v>
       </c>
       <c r="G167" t="n">
-        <v>5.865499999999994</v>
+        <v>5.865333333333326</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6311,10 +6255,10 @@
         <v>5.91</v>
       </c>
       <c r="F168" t="n">
-        <v>2020.642978003384</v>
+        <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>5.864999999999994</v>
+        <v>5.865499999999994</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6346,10 +6290,10 @@
         <v>5.91</v>
       </c>
       <c r="F169" t="n">
-        <v>285.1785</v>
+        <v>2020.642978003384</v>
       </c>
       <c r="G169" t="n">
-        <v>5.865166666666662</v>
+        <v>5.864999999999994</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6381,10 +6325,10 @@
         <v>5.91</v>
       </c>
       <c r="F170" t="n">
-        <v>777.1573</v>
+        <v>285.1785</v>
       </c>
       <c r="G170" t="n">
-        <v>5.864666666666662</v>
+        <v>5.865166666666662</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6416,10 +6360,10 @@
         <v>5.91</v>
       </c>
       <c r="F171" t="n">
-        <v>4722.842639593909</v>
+        <v>777.1573</v>
       </c>
       <c r="G171" t="n">
-        <v>5.864333333333329</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6442,16 +6386,16 @@
         <v>5.91</v>
       </c>
       <c r="C172" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="D172" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="E172" t="n">
         <v>5.91</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>4722.842639593909</v>
       </c>
       <c r="G172" t="n">
         <v>5.864333333333329</v>
@@ -6474,7 +6418,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="C173" t="n">
         <v>5.95</v>
@@ -6483,13 +6427,13 @@
         <v>5.95</v>
       </c>
       <c r="E173" t="n">
-        <v>5.95</v>
+        <v>5.91</v>
       </c>
       <c r="F173" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>5.864666666666662</v>
+        <v>5.864333333333329</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6509,7 +6453,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="C174" t="n">
         <v>5.95</v>
@@ -6518,10 +6462,10 @@
         <v>5.95</v>
       </c>
       <c r="E174" t="n">
-        <v>5.77</v>
+        <v>5.95</v>
       </c>
       <c r="F174" t="n">
-        <v>20</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="n">
         <v>5.864666666666662</v>
@@ -6544,19 +6488,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="C175" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D175" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E175" t="n">
-        <v>5.94</v>
+        <v>5.77</v>
       </c>
       <c r="F175" t="n">
-        <v>10.7744</v>
+        <v>20</v>
       </c>
       <c r="G175" t="n">
         <v>5.864666666666662</v>
@@ -6588,10 +6532,10 @@
         <v>5.94</v>
       </c>
       <c r="E176" t="n">
-        <v>5.77</v>
+        <v>5.94</v>
       </c>
       <c r="F176" t="n">
-        <v>43</v>
+        <v>10.7744</v>
       </c>
       <c r="G176" t="n">
         <v>5.864666666666662</v>
@@ -6626,10 +6570,10 @@
         <v>5.77</v>
       </c>
       <c r="F177" t="n">
-        <v>573</v>
+        <v>43</v>
       </c>
       <c r="G177" t="n">
-        <v>5.864833333333328</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6658,13 +6602,13 @@
         <v>5.94</v>
       </c>
       <c r="E178" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="F178" t="n">
-        <v>32</v>
+        <v>573</v>
       </c>
       <c r="G178" t="n">
-        <v>5.865166666666662</v>
+        <v>5.864833333333328</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6684,7 +6628,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.79</v>
+        <v>5.94</v>
       </c>
       <c r="C179" t="n">
         <v>5.94</v>
@@ -6696,10 +6640,10 @@
         <v>5.79</v>
       </c>
       <c r="F179" t="n">
-        <v>547.4949</v>
+        <v>32</v>
       </c>
       <c r="G179" t="n">
-        <v>5.866666666666661</v>
+        <v>5.865166666666662</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6719,10 +6663,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C180" t="n">
         <v>5.94</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.93</v>
       </c>
       <c r="D180" t="n">
         <v>5.94</v>
@@ -6731,10 +6675,10 @@
         <v>5.79</v>
       </c>
       <c r="F180" t="n">
-        <v>2813.1157</v>
+        <v>547.4949</v>
       </c>
       <c r="G180" t="n">
-        <v>5.868833333333328</v>
+        <v>5.866666666666661</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6754,28 +6698,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C181" t="n">
-        <v>5.79</v>
+        <v>5.93</v>
       </c>
       <c r="D181" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E181" t="n">
         <v>5.79</v>
       </c>
       <c r="F181" t="n">
-        <v>2727.554</v>
+        <v>2813.1157</v>
       </c>
       <c r="G181" t="n">
-        <v>5.866499999999994</v>
+        <v>5.868833333333328</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -6789,28 +6733,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="C182" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="D182" t="n">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="E182" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="F182" t="n">
-        <v>11</v>
+        <v>2727.554</v>
       </c>
       <c r="G182" t="n">
-        <v>5.868499999999995</v>
+        <v>5.866499999999994</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -6827,19 +6771,19 @@
         <v>5.82</v>
       </c>
       <c r="C183" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="D183" t="n">
-        <v>5.94</v>
+        <v>5.82</v>
       </c>
       <c r="E183" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="F183" t="n">
-        <v>168528.6470208754</v>
+        <v>11</v>
       </c>
       <c r="G183" t="n">
-        <v>5.870666666666661</v>
+        <v>5.868499999999995</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6859,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.93</v>
+        <v>5.82</v>
       </c>
       <c r="C184" t="n">
         <v>5.79</v>
       </c>
       <c r="D184" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="E184" t="n">
         <v>5.79</v>
       </c>
       <c r="F184" t="n">
-        <v>17891.8492</v>
+        <v>168528.6470208754</v>
       </c>
       <c r="G184" t="n">
-        <v>5.868666666666661</v>
+        <v>5.870666666666661</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6906,10 +6850,10 @@
         <v>5.79</v>
       </c>
       <c r="F185" t="n">
-        <v>22</v>
+        <v>17891.8492</v>
       </c>
       <c r="G185" t="n">
-        <v>5.870999999999995</v>
+        <v>5.868666666666661</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6929,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="C186" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="D186" t="n">
-        <v>5.81</v>
+        <v>5.93</v>
       </c>
       <c r="E186" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F186" t="n">
-        <v>10373.05</v>
+        <v>22</v>
       </c>
       <c r="G186" t="n">
-        <v>5.869166666666661</v>
+        <v>5.870999999999995</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6964,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="C187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="D187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="E187" t="n">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="F187" t="n">
-        <v>4324.2296</v>
+        <v>10373.05</v>
       </c>
       <c r="G187" t="n">
-        <v>5.866999999999995</v>
+        <v>5.869166666666661</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6999,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="C188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="D188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="E188" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>4324.2296</v>
       </c>
       <c r="G188" t="n">
-        <v>5.866666666666661</v>
+        <v>5.866999999999995</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7034,31 +6978,35 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.866666666666661</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>5.79</v>
       </c>
-      <c r="C189" t="n">
+      <c r="K189" t="n">
         <v>5.79</v>
       </c>
-      <c r="D189" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5.864499999999994</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
@@ -7072,29 +7020,37 @@
         <v>5.79</v>
       </c>
       <c r="C190" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="D190" t="n">
-        <v>5.9</v>
+        <v>5.79</v>
       </c>
       <c r="E190" t="n">
         <v>5.79</v>
       </c>
       <c r="F190" t="n">
-        <v>1492.1222</v>
+        <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>5.864166666666661</v>
+        <v>5.864499999999994</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K190" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7104,32 +7060,40 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="C191" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D191" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="E191" t="n">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="F191" t="n">
-        <v>7353.5289</v>
+        <v>1492.1222</v>
       </c>
       <c r="G191" t="n">
-        <v>5.867166666666661</v>
+        <v>5.864166666666661</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K191" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7139,7 +7103,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C192" t="n">
         <v>5.88</v>
@@ -7148,23 +7112,31 @@
         <v>5.88</v>
       </c>
       <c r="E192" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7353.5289</v>
+      </c>
+      <c r="G192" t="n">
+        <v>5.867166666666661</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K192" t="n">
         <v>5.79</v>
       </c>
-      <c r="F192" t="n">
-        <v>108.0272</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.866833333333328</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7174,7 +7146,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="C193" t="n">
         <v>5.88</v>
@@ -7183,13 +7155,13 @@
         <v>5.88</v>
       </c>
       <c r="E193" t="n">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="F193" t="n">
-        <v>32.3129</v>
+        <v>108.0272</v>
       </c>
       <c r="G193" t="n">
-        <v>5.866499999999994</v>
+        <v>5.866833333333328</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7198,8 +7170,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7221,20 +7199,28 @@
         <v>5.83</v>
       </c>
       <c r="F194" t="n">
-        <v>58.9972</v>
+        <v>32.3129</v>
       </c>
       <c r="G194" t="n">
-        <v>5.869499999999994</v>
+        <v>5.866499999999994</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K194" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7244,32 +7230,40 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C195" t="n">
-        <v>5.81</v>
+        <v>5.88</v>
       </c>
       <c r="D195" t="n">
         <v>5.88</v>
       </c>
       <c r="E195" t="n">
-        <v>5.81</v>
+        <v>5.83</v>
       </c>
       <c r="F195" t="n">
-        <v>7816.5918</v>
+        <v>58.9972</v>
       </c>
       <c r="G195" t="n">
-        <v>5.868499999999995</v>
+        <v>5.869499999999994</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K195" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7279,22 +7273,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.81</v>
+        <v>5.87</v>
       </c>
       <c r="C196" t="n">
         <v>5.81</v>
       </c>
       <c r="D196" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E196" t="n">
         <v>5.81</v>
       </c>
-      <c r="E196" t="n">
-        <v>5.8</v>
-      </c>
       <c r="F196" t="n">
-        <v>80340.8285</v>
+        <v>7816.5918</v>
       </c>
       <c r="G196" t="n">
-        <v>5.867333333333328</v>
+        <v>5.868499999999995</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7303,8 +7297,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7314,22 +7314,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D197" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E197" t="n">
         <v>5.8</v>
       </c>
       <c r="F197" t="n">
-        <v>49927.7242</v>
+        <v>80340.8285</v>
       </c>
       <c r="G197" t="n">
-        <v>5.865999999999995</v>
+        <v>5.867333333333328</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7338,8 +7338,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7361,10 +7367,10 @@
         <v>5.8</v>
       </c>
       <c r="F198" t="n">
-        <v>72.2758</v>
+        <v>49927.7242</v>
       </c>
       <c r="G198" t="n">
-        <v>5.864666666666662</v>
+        <v>5.865999999999995</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7373,8 +7379,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7396,20 +7408,28 @@
         <v>5.8</v>
       </c>
       <c r="F199" t="n">
-        <v>146479.4483</v>
+        <v>72.2758</v>
       </c>
       <c r="G199" t="n">
-        <v>5.863333333333329</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K199" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7419,7 +7439,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C200" t="n">
         <v>5.8</v>
@@ -7428,23 +7448,29 @@
         <v>5.8</v>
       </c>
       <c r="E200" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F200" t="n">
+        <v>146479.4483</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5.863333333333329</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
         <v>5.79</v>
       </c>
-      <c r="F200" t="n">
-        <v>51703.6838</v>
-      </c>
-      <c r="G200" t="n">
-        <v>5.864666666666662</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7454,22 +7480,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="C201" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="D201" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="E201" t="n">
-        <v>5.81</v>
+        <v>5.79</v>
       </c>
       <c r="F201" t="n">
-        <v>11</v>
+        <v>51703.6838</v>
       </c>
       <c r="G201" t="n">
-        <v>5.864166666666662</v>
+        <v>5.864666666666662</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7478,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7489,22 +7521,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E202" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F202" t="n">
-        <v>30000</v>
+        <v>11</v>
       </c>
       <c r="G202" t="n">
-        <v>5.863499999999997</v>
+        <v>5.864166666666662</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7513,8 +7545,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7524,22 +7562,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="C203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="E203" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F203" t="n">
-        <v>7462.8602</v>
+        <v>30000</v>
       </c>
       <c r="G203" t="n">
-        <v>5.862333333333329</v>
+        <v>5.863499999999997</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7548,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7559,22 +7603,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="C204" t="n">
         <v>5.77</v>
       </c>
       <c r="D204" t="n">
-        <v>5.81</v>
+        <v>5.77</v>
       </c>
       <c r="E204" t="n">
         <v>5.77</v>
       </c>
       <c r="F204" t="n">
-        <v>13091.7446</v>
+        <v>7462.8602</v>
       </c>
       <c r="G204" t="n">
-        <v>5.861166666666663</v>
+        <v>5.862333333333329</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7583,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7594,22 +7644,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.76</v>
+        <v>5.81</v>
       </c>
       <c r="C205" t="n">
-        <v>5.88</v>
+        <v>5.77</v>
       </c>
       <c r="D205" t="n">
-        <v>5.88</v>
+        <v>5.81</v>
       </c>
       <c r="E205" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F205" t="n">
-        <v>291197.7908</v>
+        <v>13091.7446</v>
       </c>
       <c r="G205" t="n">
-        <v>5.861833333333331</v>
+        <v>5.861166666666663</v>
       </c>
       <c r="H205" t="n">
         <v>1</v>
@@ -7620,10 +7670,12 @@
       <c r="J205" t="n">
         <v>5.77</v>
       </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -7635,33 +7687,33 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C206" t="n">
         <v>5.88</v>
       </c>
-      <c r="C206" t="n">
-        <v>5.89</v>
-      </c>
       <c r="D206" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="E206" t="n">
-        <v>5.88</v>
+        <v>5.76</v>
       </c>
       <c r="F206" t="n">
-        <v>5310.767</v>
+        <v>291197.7908</v>
       </c>
       <c r="G206" t="n">
-        <v>5.862666666666664</v>
+        <v>5.861833333333331</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7676,7 +7728,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C207" t="n">
         <v>5.89</v>
@@ -7685,13 +7737,13 @@
         <v>5.89</v>
       </c>
       <c r="E207" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F207" t="n">
-        <v>1489.5791</v>
+        <v>5310.767</v>
       </c>
       <c r="G207" t="n">
-        <v>5.863666666666663</v>
+        <v>5.862666666666664</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
@@ -7700,9 +7752,11 @@
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+        <v>5.88</v>
+      </c>
+      <c r="K207" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,21 +7783,21 @@
         <v>5.89</v>
       </c>
       <c r="F208" t="n">
-        <v>213.5602</v>
+        <v>1489.5791</v>
       </c>
       <c r="G208" t="n">
-        <v>5.864666666666664</v>
+        <v>5.863666666666663</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,10 +7824,10 @@
         <v>5.89</v>
       </c>
       <c r="F209" t="n">
-        <v>14.3293</v>
+        <v>213.5602</v>
       </c>
       <c r="G209" t="n">
-        <v>5.865666666666664</v>
+        <v>5.864666666666664</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7782,7 +7836,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7809,10 +7865,10 @@
         <v>5.89</v>
       </c>
       <c r="F210" t="n">
-        <v>72.13039999999999</v>
+        <v>14.3293</v>
       </c>
       <c r="G210" t="n">
-        <v>5.868166666666664</v>
+        <v>5.865666666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7821,7 +7877,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,10 +7906,10 @@
         <v>5.89</v>
       </c>
       <c r="F211" t="n">
-        <v>10.0084</v>
+        <v>72.13039999999999</v>
       </c>
       <c r="G211" t="n">
-        <v>5.869499999999997</v>
+        <v>5.868166666666664</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7860,7 +7918,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>5.79</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7870,6 +7930,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10.0084</v>
+      </c>
+      <c r="G212" t="n">
+        <v>5.869499999999997</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>206146.697</v>
       </c>
       <c r="G2" t="n">
+        <v>6.132666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.077666666666661</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>121.8888</v>
       </c>
       <c r="G3" t="n">
+        <v>6.132666666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.081999999999995</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>44.4444</v>
       </c>
       <c r="G4" t="n">
+        <v>6.132666666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.086833333333328</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>37802.2801</v>
       </c>
       <c r="G5" t="n">
+        <v>6.132666666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.090999999999994</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>25000</v>
       </c>
       <c r="G6" t="n">
+        <v>6.132666666666665</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.09566666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>13346.7524</v>
       </c>
       <c r="G7" t="n">
+        <v>6.130666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.099333333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
+        <v>6.128666666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.102833333333328</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2136.6979</v>
       </c>
       <c r="G9" t="n">
+        <v>6.126666666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.103666666666661</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
+        <v>6.124666666666665</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.104499999999995</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>6.122666666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.105166666666662</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>38460.1639</v>
       </c>
       <c r="G12" t="n">
+        <v>6.121999999999998</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.104833333333329</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>6.123333333333331</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.105333333333329</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>151449.8361</v>
       </c>
       <c r="G14" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.105666666666662</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>607.5040783034258</v>
       </c>
       <c r="G15" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.107499999999995</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>11763.2483</v>
       </c>
       <c r="G16" t="n">
+        <v>6.127333333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.109666666666661</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>144.3332</v>
       </c>
       <c r="G17" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.110499999999996</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>98.95350000000001</v>
       </c>
       <c r="G18" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.111666666666662</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>275.393</v>
       </c>
       <c r="G19" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.112833333333328</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>44.4444</v>
       </c>
       <c r="G20" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.115833333333328</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>955.5556</v>
       </c>
       <c r="G21" t="n">
+        <v>6.126666666666664</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.116999999999995</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>150</v>
       </c>
       <c r="G22" t="n">
+        <v>6.128666666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.118499999999995</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>47850.00006436758</v>
       </c>
       <c r="G23" t="n">
+        <v>6.130666666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.119999999999994</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>110</v>
       </c>
       <c r="G24" t="n">
+        <v>6.133333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.12166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>736873.0081</v>
       </c>
       <c r="G25" t="n">
+        <v>6.135999999999998</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.122999999999993</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>20886.0167</v>
       </c>
       <c r="G26" t="n">
+        <v>6.138666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.124333333333326</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>200</v>
       </c>
       <c r="G27" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.125666666666659</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>41278.1028</v>
       </c>
       <c r="G28" t="n">
+        <v>6.141333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.126999999999993</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1511.5384</v>
       </c>
       <c r="G29" t="n">
+        <v>6.142666666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.128333333333326</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>155.9191</v>
       </c>
       <c r="G30" t="n">
+        <v>6.144000000000002</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.129666666666659</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>162.3376</v>
       </c>
       <c r="G31" t="n">
+        <v>6.144666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.130499999999992</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>89</v>
       </c>
       <c r="G32" t="n">
+        <v>6.146000000000003</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.131333333333324</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1350</v>
       </c>
       <c r="G33" t="n">
+        <v>6.14666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.132166666666657</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1650</v>
       </c>
       <c r="G34" t="n">
+        <v>6.147333333333337</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.132999999999989</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2200</v>
       </c>
       <c r="G35" t="n">
+        <v>6.148000000000004</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.133833333333322</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2000</v>
       </c>
       <c r="G36" t="n">
+        <v>6.148666666666671</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.134666666666654</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>4800</v>
       </c>
       <c r="G37" t="n">
+        <v>6.149333333333337</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.135499999999987</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>6000</v>
       </c>
       <c r="G38" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.13633333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>8600</v>
       </c>
       <c r="G39" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.136999999999985</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>8400</v>
       </c>
       <c r="G40" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.137166666666652</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.137333333333318</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>100</v>
       </c>
       <c r="G42" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.137499999999985</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>94306.61500000001</v>
       </c>
       <c r="G43" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.138166666666651</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>16260.1626</v>
       </c>
       <c r="G44" t="n">
+        <v>6.150000000000005</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.138333333333318</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>174.1321</v>
       </c>
       <c r="G45" t="n">
+        <v>6.150666666666671</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.138666666666651</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>6.151333333333337</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.138999999999985</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>100.5</v>
       </c>
       <c r="G47" t="n">
+        <v>6.150000000000003</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.138833333333319</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>6.150666666666669</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.139166666666653</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>6.151333333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.139499999999987</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>6.152000000000001</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.13983333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>29</v>
       </c>
       <c r="G51" t="n">
+        <v>6.152666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.140166666666655</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>353.4090909090909</v>
       </c>
       <c r="G52" t="n">
+        <v>6.153333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.140499999999989</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
+        <v>6.153999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.140833333333322</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>52</v>
       </c>
       <c r="G54" t="n">
+        <v>6.154666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.141166666666657</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>196.7532</v>
       </c>
       <c r="G55" t="n">
+        <v>6.155333333333331</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.141499999999991</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2634.4686</v>
       </c>
       <c r="G56" t="n">
+        <v>6.155999999999997</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.141833333333325</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>55.4444</v>
       </c>
       <c r="G57" t="n">
+        <v>6.156666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.142166666666658</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1199.4404</v>
       </c>
       <c r="G58" t="n">
+        <v>6.157333333333329</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.142999999999992</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>403.0121</v>
       </c>
       <c r="G59" t="n">
+        <v>6.157999999999996</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.144333333333326</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>6.157999999999996</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.144833333333326</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>84.41549999999999</v>
       </c>
       <c r="G61" t="n">
+        <v>6.157999999999996</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.145333333333327</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>48967.6447987013</v>
       </c>
       <c r="G62" t="n">
+        <v>6.159999999999996</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.145666666666661</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1.0389610389612e-05</v>
       </c>
       <c r="G63" t="n">
+        <v>6.159999999999996</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.145999999999995</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>273.2825</v>
       </c>
       <c r="G64" t="n">
+        <v>6.161333333333329</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.146666666666662</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>46667.6163</v>
       </c>
       <c r="G65" t="n">
+        <v>6.163999999999996</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.147666666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>30387.74193548387</v>
       </c>
       <c r="G66" t="n">
+        <v>6.166666666666663</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.148666666666662</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>743.5699</v>
       </c>
       <c r="G67" t="n">
+        <v>6.16933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.150166666666662</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>143.3332</v>
       </c>
       <c r="G68" t="n">
+        <v>6.171999999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.151666666666661</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>58.0645</v>
       </c>
       <c r="G69" t="n">
+        <v>6.174666666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.153166666666661</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>6.177333333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.15466666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>488.6023</v>
       </c>
       <c r="G71" t="n">
+        <v>6.179999999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.15616666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>255.4444</v>
       </c>
       <c r="G72" t="n">
+        <v>6.182666666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.157333333333327</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>425.5059</v>
       </c>
       <c r="G73" t="n">
+        <v>6.185333333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.158499999999993</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>88.8888</v>
       </c>
       <c r="G74" t="n">
+        <v>6.188</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.15966666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>10000</v>
       </c>
       <c r="G75" t="n">
+        <v>6.190666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.160833333333327</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>13009.1576</v>
       </c>
       <c r="G76" t="n">
+        <v>6.190666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.16116666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>67006.7813</v>
       </c>
       <c r="G77" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.161499999999993</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>37831.4064</v>
       </c>
       <c r="G78" t="n">
+        <v>6.188000000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.161333333333327</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>10094.0726</v>
       </c>
       <c r="G79" t="n">
+        <v>6.184666666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.16116666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
+        <v>6.181333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.161333333333327</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>100</v>
       </c>
       <c r="G81" t="n">
+        <v>6.178000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.161499999999993</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>73.8</v>
       </c>
       <c r="G82" t="n">
+        <v>6.174666666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.16166666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>37470.509</v>
       </c>
       <c r="G83" t="n">
+        <v>6.168000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.160999999999993</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>110</v>
       </c>
       <c r="G84" t="n">
+        <v>6.164000000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.160833333333327</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>132415.6355</v>
       </c>
       <c r="G85" t="n">
+        <v>6.156666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.159833333333327</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>375039.1495</v>
       </c>
       <c r="G86" t="n">
+        <v>6.148000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.158499999999994</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>14277.4286</v>
       </c>
       <c r="G87" t="n">
+        <v>6.139333333333335</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.157166666666661</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>42970.8586</v>
       </c>
       <c r="G88" t="n">
+        <v>6.130000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.155666666666662</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>263821.1866</v>
       </c>
       <c r="G89" t="n">
+        <v>6.121333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.154333333333328</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
+        <v>6.112666666666668</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.152999999999995</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>100</v>
       </c>
       <c r="G91" t="n">
+        <v>6.106666666666668</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.151666666666662</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>93319.5419</v>
       </c>
       <c r="G92" t="n">
+        <v>6.101333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.15033333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>61605.6332</v>
       </c>
       <c r="G93" t="n">
+        <v>6.096000000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.148666666666663</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>660</v>
       </c>
       <c r="G94" t="n">
+        <v>6.090000000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.146833333333331</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>2100020</v>
       </c>
       <c r="G95" t="n">
+        <v>6.080000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.144333333333331</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>20</v>
       </c>
       <c r="G96" t="n">
+        <v>6.074000000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.142833333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>6.067333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.141166666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>200</v>
       </c>
       <c r="G98" t="n">
+        <v>6.064000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.139499999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>303071.9831</v>
       </c>
       <c r="G99" t="n">
+        <v>6.051333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.136166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
+        <v>6.042000000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.132833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1100</v>
       </c>
       <c r="G101" t="n">
+        <v>6.034000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.129499999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>88969.47229999999</v>
       </c>
       <c r="G102" t="n">
+        <v>6.022666666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.125333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
+        <v>6.014666666666669</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.121833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>44.6127</v>
       </c>
       <c r="G104" t="n">
+        <v>6.006000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.118333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
+        <v>5.997333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.114666666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>52379.7421</v>
       </c>
       <c r="G106" t="n">
+        <v>5.986000000000003</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.110333333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>20</v>
       </c>
       <c r="G107" t="n">
+        <v>5.977333333333337</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.107166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>145126.8362</v>
       </c>
       <c r="G108" t="n">
+        <v>5.967333333333338</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.102833333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>20</v>
       </c>
       <c r="G109" t="n">
+        <v>5.96066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.099166666666664</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>476.4214</v>
       </c>
       <c r="G110" t="n">
+        <v>5.954000000000004</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.09483333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1010</v>
       </c>
       <c r="G111" t="n">
+        <v>5.946000000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.091166666666664</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>435.1107</v>
       </c>
       <c r="G112" t="n">
+        <v>5.938000000000004</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.08733333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>5.931333333333338</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.083833333333329</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>145688.6667</v>
       </c>
       <c r="G114" t="n">
+        <v>5.930000000000004</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.079999999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>1531.9327</v>
       </c>
       <c r="G115" t="n">
+        <v>5.930000000000004</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.076499999999995</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
+        <v>5.929333333333337</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.072833333333327</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1100</v>
       </c>
       <c r="G117" t="n">
+        <v>5.932000000000003</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.069166666666661</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>1000</v>
       </c>
       <c r="G118" t="n">
+        <v>5.931333333333337</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.065333333333327</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>207785.9771</v>
       </c>
       <c r="G119" t="n">
+        <v>5.930000000000004</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.061333333333327</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>473727.4623</v>
       </c>
       <c r="G120" t="n">
+        <v>5.924000000000004</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.05616666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>173233.7068</v>
       </c>
       <c r="G121" t="n">
+        <v>5.917333333333336</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.05016666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>2045.9625</v>
       </c>
       <c r="G122" t="n">
+        <v>5.916666666666671</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.046333333333326</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>231634.4815</v>
       </c>
       <c r="G123" t="n">
+        <v>5.903333333333337</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.038666666666659</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>112369.8095</v>
       </c>
       <c r="G124" t="n">
+        <v>5.88466666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.029999999999992</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>10</v>
       </c>
       <c r="G125" t="n">
+        <v>5.885333333333336</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.02516666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>3272.127</v>
       </c>
       <c r="G126" t="n">
+        <v>5.866000000000003</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.015999999999993</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>12462.077</v>
       </c>
       <c r="G127" t="n">
+        <v>5.865333333333337</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.011333333333327</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>63819.9287</v>
       </c>
       <c r="G128" t="n">
+        <v>5.863333333333336</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.006666666666661</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
+        <v>5.86266666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.001999999999994</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
+        <v>5.86066666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.997333333333328</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>221065.7438</v>
       </c>
       <c r="G131" t="n">
+        <v>5.85866666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.992499999999995</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
+        <v>5.842666666666671</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.984166666666662</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
+        <v>5.840666666666672</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.979166666666662</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1099.8983</v>
       </c>
       <c r="G134" t="n">
+        <v>5.839333333333339</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.974166666666662</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>3280</v>
       </c>
       <c r="G135" t="n">
+        <v>5.829333333333339</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.965833333333328</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
+        <v>5.834000000000006</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.960999999999995</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>2794.9593</v>
       </c>
       <c r="G137" t="n">
+        <v>5.830666666666673</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.956499999999995</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>77.551</v>
       </c>
       <c r="G138" t="n">
+        <v>5.842666666666672</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.952333333333328</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>13628.7414</v>
       </c>
       <c r="G139" t="n">
+        <v>5.857333333333339</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.948166666666662</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>170.068</v>
       </c>
       <c r="G140" t="n">
+        <v>5.855333333333339</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.943666666666662</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>808346.5201</v>
       </c>
       <c r="G141" t="n">
+        <v>5.860000000000005</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.936499999999996</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>93</v>
       </c>
       <c r="G142" t="n">
+        <v>5.854666666666672</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.931333333333329</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>5916.593473972603</v>
       </c>
       <c r="G143" t="n">
+        <v>5.849333333333338</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.926999999999995</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>228.9453</v>
       </c>
       <c r="G144" t="n">
+        <v>5.844000000000006</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.921999999999995</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>44.4444</v>
       </c>
       <c r="G145" t="n">
+        <v>5.838666666666672</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.917833333333329</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,25 @@
         <v>7866.6668</v>
       </c>
       <c r="G146" t="n">
+        <v>5.834000000000006</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.913999999999995</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L146" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5967,27 @@
         <v>225</v>
       </c>
       <c r="G147" t="n">
+        <v>5.843333333333339</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.910166666666661</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6011,29 @@
         <v>3113.2075</v>
       </c>
       <c r="G148" t="n">
+        <v>5.838666666666672</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.906333333333327</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L148" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6057,25 @@
         <v>9339.688</v>
       </c>
       <c r="G149" t="n">
+        <v>5.834000000000005</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.902333333333328</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L149" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6099,29 @@
         <v>92.2945</v>
       </c>
       <c r="G150" t="n">
+        <v>5.842666666666672</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.898333333333327</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6145,27 @@
         <v>10000</v>
       </c>
       <c r="G151" t="n">
+        <v>5.834000000000004</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.892833333333328</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6189,25 @@
         <v>172.1170395869191</v>
       </c>
       <c r="G152" t="n">
+        <v>5.829333333333338</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.888499999999994</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="L152" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6231,29 @@
         <v>1750.1719</v>
       </c>
       <c r="G153" t="n">
+        <v>5.824666666666672</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.884499999999994</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="L153" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6277,29 @@
         <v>42162.94858672887</v>
       </c>
       <c r="G154" t="n">
+        <v>5.825333333333338</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.881999999999993</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="L154" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6323,21 @@
         <v>72262.58500000001</v>
       </c>
       <c r="G155" t="n">
+        <v>5.825333333333338</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.879999999999994</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6361,21 @@
         <v>71686.34697368421</v>
       </c>
       <c r="G156" t="n">
+        <v>5.837333333333339</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.877333333333326</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6399,21 @@
         <v>108026.4406</v>
       </c>
       <c r="G157" t="n">
+        <v>5.841333333333339</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.874833333333326</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6437,21 @@
         <v>36534.50012631579</v>
       </c>
       <c r="G158" t="n">
+        <v>5.844666666666672</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.872166666666659</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6475,21 @@
         <v>136.5932</v>
       </c>
       <c r="G159" t="n">
+        <v>5.848666666666673</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.871333333333325</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6513,21 @@
         <v>154.3811</v>
       </c>
       <c r="G160" t="n">
+        <v>5.850000000000006</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.869833333333326</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6551,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
+        <v>5.854000000000005</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.868999999999992</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6589,21 @@
         <v>28</v>
       </c>
       <c r="G162" t="n">
+        <v>5.858000000000006</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.868999999999992</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6627,21 @@
         <v>11425.4976</v>
       </c>
       <c r="G163" t="n">
+        <v>5.862666666666673</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.868333333333325</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6665,21 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
+        <v>5.870666666666674</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.868499999999992</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6703,21 @@
         <v>5185.4178</v>
       </c>
       <c r="G165" t="n">
+        <v>5.878666666666674</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.868666666666658</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6741,21 @@
         <v>6946.1785</v>
       </c>
       <c r="G166" t="n">
+        <v>5.890000000000007</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.868833333333326</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6779,21 @@
         <v>128177.5066</v>
       </c>
       <c r="G167" t="n">
+        <v>5.884666666666674</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.865333333333326</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6817,21 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
+        <v>5.89133333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.865499999999994</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6855,21 @@
         <v>2020.642978003384</v>
       </c>
       <c r="G169" t="n">
+        <v>5.892666666666673</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.864999999999994</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6893,21 @@
         <v>285.1785</v>
       </c>
       <c r="G170" t="n">
+        <v>5.894666666666674</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.865166666666662</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6931,21 @@
         <v>777.1573</v>
       </c>
       <c r="G171" t="n">
+        <v>5.89533333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6969,21 @@
         <v>4722.842639593909</v>
       </c>
       <c r="G172" t="n">
+        <v>5.896000000000005</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.864333333333329</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7007,21 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.864333333333329</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7045,21 @@
         <v>5000</v>
       </c>
       <c r="G174" t="n">
+        <v>5.903333333333339</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7083,21 @@
         <v>20</v>
       </c>
       <c r="G175" t="n">
+        <v>5.909333333333339</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7121,21 @@
         <v>10.7744</v>
       </c>
       <c r="G176" t="n">
+        <v>5.912000000000005</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7159,21 @@
         <v>43</v>
       </c>
       <c r="G177" t="n">
+        <v>5.914666666666672</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7197,21 @@
         <v>573</v>
       </c>
       <c r="G178" t="n">
+        <v>5.917333333333337</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.864833333333328</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7235,21 @@
         <v>32</v>
       </c>
       <c r="G179" t="n">
+        <v>5.916666666666671</v>
+      </c>
+      <c r="H179" t="n">
         <v>5.865166666666662</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7273,21 @@
         <v>547.4949</v>
       </c>
       <c r="G180" t="n">
+        <v>5.916000000000003</v>
+      </c>
+      <c r="H180" t="n">
         <v>5.866666666666661</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7311,21 @@
         <v>2813.1157</v>
       </c>
       <c r="G181" t="n">
+        <v>5.917333333333336</v>
+      </c>
+      <c r="H181" t="n">
         <v>5.868833333333328</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7349,21 @@
         <v>2727.554</v>
       </c>
       <c r="G182" t="n">
+        <v>5.921333333333337</v>
+      </c>
+      <c r="H182" t="n">
         <v>5.866499999999994</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7387,21 @@
         <v>11</v>
       </c>
       <c r="G183" t="n">
+        <v>5.915333333333336</v>
+      </c>
+      <c r="H183" t="n">
         <v>5.868499999999995</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7425,21 @@
         <v>168528.6470208754</v>
       </c>
       <c r="G184" t="n">
+        <v>5.907333333333337</v>
+      </c>
+      <c r="H184" t="n">
         <v>5.870666666666661</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7463,21 @@
         <v>17891.8492</v>
       </c>
       <c r="G185" t="n">
+        <v>5.899333333333337</v>
+      </c>
+      <c r="H185" t="n">
         <v>5.868666666666661</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7501,21 @@
         <v>22</v>
       </c>
       <c r="G186" t="n">
+        <v>5.891333333333338</v>
+      </c>
+      <c r="H186" t="n">
         <v>5.870999999999995</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7539,21 @@
         <v>10373.05</v>
       </c>
       <c r="G187" t="n">
+        <v>5.884666666666672</v>
+      </c>
+      <c r="H187" t="n">
         <v>5.869166666666661</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7577,25 @@
         <v>4324.2296</v>
       </c>
       <c r="G188" t="n">
+        <v>5.874000000000006</v>
+      </c>
+      <c r="H188" t="n">
         <v>5.866999999999995</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="L188" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,22 +7619,29 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
+        <v>5.870666666666673</v>
+      </c>
+      <c r="H189" t="n">
         <v>5.866666666666661</v>
       </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>5.79</v>
       </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7032,26 +7665,27 @@
         <v>30</v>
       </c>
       <c r="G190" t="n">
+        <v>5.860000000000006</v>
+      </c>
+      <c r="H190" t="n">
         <v>5.864499999999994</v>
       </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K190" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7075,26 +7709,29 @@
         <v>1492.1222</v>
       </c>
       <c r="G191" t="n">
+        <v>5.856666666666673</v>
+      </c>
+      <c r="H191" t="n">
         <v>5.864166666666661</v>
       </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
         <v>5.79</v>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="L191" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,26 +7755,27 @@
         <v>7353.5289</v>
       </c>
       <c r="G192" t="n">
+        <v>5.852666666666673</v>
+      </c>
+      <c r="H192" t="n">
         <v>5.867166666666661</v>
       </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K192" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7161,24 +7799,27 @@
         <v>108.0272</v>
       </c>
       <c r="G193" t="n">
+        <v>5.848666666666673</v>
+      </c>
+      <c r="H193" t="n">
         <v>5.866833333333328</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7202,26 +7843,27 @@
         <v>32.3129</v>
       </c>
       <c r="G194" t="n">
+        <v>5.844666666666672</v>
+      </c>
+      <c r="H194" t="n">
         <v>5.866499999999994</v>
       </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K194" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7245,26 +7887,29 @@
         <v>58.9972</v>
       </c>
       <c r="G195" t="n">
+        <v>5.840666666666673</v>
+      </c>
+      <c r="H195" t="n">
         <v>5.869499999999994</v>
       </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
         <v>5.88</v>
       </c>
-      <c r="K195" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="L195" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7288,24 +7933,27 @@
         <v>7816.5918</v>
       </c>
       <c r="G196" t="n">
+        <v>5.832666666666673</v>
+      </c>
+      <c r="H196" t="n">
         <v>5.868499999999995</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,24 +7977,29 @@
         <v>80340.8285</v>
       </c>
       <c r="G197" t="n">
+        <v>5.834000000000006</v>
+      </c>
+      <c r="H197" t="n">
         <v>5.867333333333328</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>5.81</v>
+      </c>
+      <c r="L197" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7370,24 +8023,29 @@
         <v>49927.7242</v>
       </c>
       <c r="G198" t="n">
+        <v>5.832666666666673</v>
+      </c>
+      <c r="H198" t="n">
         <v>5.865999999999995</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>5.81</v>
+      </c>
+      <c r="L198" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7411,26 +8069,29 @@
         <v>72.2758</v>
       </c>
       <c r="G199" t="n">
+        <v>5.833333333333339</v>
+      </c>
+      <c r="H199" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
         <v>5.8</v>
       </c>
-      <c r="K199" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="L199" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7454,24 +8115,29 @@
         <v>146479.4483</v>
       </c>
       <c r="G200" t="n">
+        <v>5.834000000000005</v>
+      </c>
+      <c r="H200" t="n">
         <v>5.863333333333329</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="L200" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7495,24 +8161,29 @@
         <v>51703.6838</v>
       </c>
       <c r="G201" t="n">
+        <v>5.834666666666672</v>
+      </c>
+      <c r="H201" t="n">
         <v>5.864666666666662</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="L201" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,24 +8207,29 @@
         <v>11</v>
       </c>
       <c r="G202" t="n">
+        <v>5.834666666666672</v>
+      </c>
+      <c r="H202" t="n">
         <v>5.864166666666662</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="L202" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7577,24 +8253,29 @@
         <v>30000</v>
       </c>
       <c r="G203" t="n">
+        <v>5.835333333333337</v>
+      </c>
+      <c r="H203" t="n">
         <v>5.863499999999997</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>5.81</v>
+      </c>
+      <c r="L203" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7618,24 +8299,29 @@
         <v>7462.8602</v>
       </c>
       <c r="G204" t="n">
+        <v>5.82666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>5.862333333333329</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>5.8</v>
+      </c>
+      <c r="L204" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7659,26 +8345,29 @@
         <v>13091.7446</v>
       </c>
       <c r="G205" t="n">
+        <v>5.825333333333336</v>
+      </c>
+      <c r="H205" t="n">
         <v>5.861166666666663</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
         <v>5.77</v>
       </c>
-      <c r="K205" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="L205" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7702,24 +8391,29 @@
         <v>291197.7908</v>
       </c>
       <c r="G206" t="n">
+        <v>5.824666666666669</v>
+      </c>
+      <c r="H206" t="n">
         <v>5.861833333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>5.77</v>
+      </c>
+      <c r="L206" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7743,26 +8437,27 @@
         <v>5310.767</v>
       </c>
       <c r="G207" t="n">
+        <v>5.825333333333336</v>
+      </c>
+      <c r="H207" t="n">
         <v>5.862666666666664</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K207" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,24 +8481,27 @@
         <v>1489.5791</v>
       </c>
       <c r="G208" t="n">
+        <v>5.826000000000003</v>
+      </c>
+      <c r="H208" t="n">
         <v>5.863666666666663</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7827,24 +8525,27 @@
         <v>213.5602</v>
       </c>
       <c r="G209" t="n">
+        <v>5.82666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>5.864666666666664</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,24 +8569,27 @@
         <v>14.3293</v>
       </c>
       <c r="G210" t="n">
+        <v>5.827333333333337</v>
+      </c>
+      <c r="H210" t="n">
         <v>5.865666666666664</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7909,24 +8613,27 @@
         <v>72.13039999999999</v>
       </c>
       <c r="G211" t="n">
+        <v>5.83266666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>5.868166666666664</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7950,24 +8657,467 @@
         <v>10.0084</v>
       </c>
       <c r="G212" t="n">
+        <v>5.838000000000004</v>
+      </c>
+      <c r="H212" t="n">
         <v>5.869499999999997</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F213" t="n">
+        <v>697.4108</v>
+      </c>
+      <c r="G213" t="n">
+        <v>5.844000000000004</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5.870833333333329</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5.850000000000004</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.870833333333329</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F215" t="n">
+        <v>435820.613</v>
+      </c>
+      <c r="G215" t="n">
+        <v>5.858666666666671</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5.871666666666663</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F216" t="n">
+        <v>286.7032</v>
+      </c>
+      <c r="G216" t="n">
+        <v>5.867333333333337</v>
+      </c>
+      <c r="H216" t="n">
+        <v>5.872166666666663</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F217" t="n">
+        <v>426114.6179</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5.881333333333337</v>
+      </c>
+      <c r="H217" t="n">
+        <v>5.874166666666664</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F218" t="n">
+        <v>804.9833</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5.896000000000003</v>
+      </c>
+      <c r="H218" t="n">
+        <v>5.876333333333331</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F219" t="n">
+        <v>45883.4484</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5.91266666666667</v>
+      </c>
+      <c r="H219" t="n">
+        <v>5.87833333333333</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="D220" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F220" t="n">
+        <v>307262.8748</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5.938000000000004</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5.883166666666663</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F221" t="n">
+        <v>316629.8729</v>
+      </c>
+      <c r="G221" t="n">
+        <v>5.956666666666671</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5.887499999999998</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="D222" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F222" t="n">
+        <v>109647.8896</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5.97466666666667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>5.891833333333332</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N280"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>771274.0390979633</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>677212.0472979632</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>879926.0117979631</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>1219924.853497963</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>1253583.312197963</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>1186576.530897963</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5797,15 @@
         <v>-1781985.672202037</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6324,18 +5830,15 @@
         <v>-1781965.672202037</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5896,15 @@
         <v>-1927072.508402037</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +5929,15 @@
         <v>-1927548.929802037</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5962,15 @@
         <v>-1926538.929802037</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6576,18 +6061,15 @@
         <v>-2072652.707202037</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6612,18 +6094,15 @@
         <v>-2071120.774502037</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6684,18 +6160,15 @@
         <v>-2071130.774502037</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6720,18 +6193,15 @@
         <v>-2072130.774502037</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6226,15 @@
         <v>-2279916.751602037</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6292,15 @@
         <v>-2926877.920702036</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6864,18 +6325,15 @@
         <v>-2924831.958202037</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6358,15 @@
         <v>-3156466.439702037</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6936,18 +6391,15 @@
         <v>-3268836.249202037</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6972,18 +6424,15 @@
         <v>-3268826.249202037</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9276,22 +8536,19 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="J247" t="n">
         <v>5.79</v>
       </c>
-      <c r="K247" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9318,22 +8575,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
         <v>5.79</v>
       </c>
-      <c r="L248" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9360,22 +8614,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
         <v>5.79</v>
       </c>
-      <c r="L249" t="inlineStr">
+      <c r="K249" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9400,24 +8651,23 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J250" t="n">
         <v>5.79</v>
       </c>
-      <c r="L250" t="inlineStr">
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9444,22 +8694,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
         <v>5.79</v>
       </c>
-      <c r="L251" t="inlineStr">
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9484,24 +8731,23 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J252" t="n">
         <v>5.79</v>
       </c>
-      <c r="L252" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9526,26 +8772,23 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J253" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K253" t="n">
         <v>5.79</v>
       </c>
-      <c r="L253" t="inlineStr">
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9572,22 +8815,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
         <v>5.79</v>
       </c>
-      <c r="L254" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9612,26 +8852,23 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J255" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K255" t="n">
         <v>5.79</v>
       </c>
-      <c r="L255" t="inlineStr">
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9656,26 +8893,23 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J256" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K256" t="n">
         <v>5.79</v>
       </c>
-      <c r="L256" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9700,26 +8934,23 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J257" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K257" t="n">
         <v>5.79</v>
       </c>
-      <c r="L257" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9744,26 +8975,23 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J258" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K258" t="n">
         <v>5.79</v>
       </c>
-      <c r="L258" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9788,26 +9016,23 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J259" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K259" t="n">
         <v>5.79</v>
       </c>
-      <c r="L259" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9832,26 +9057,23 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J260" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K260" t="n">
         <v>5.79</v>
       </c>
-      <c r="L260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9876,26 +9098,23 @@
         <v>-4693064.950249228</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J261" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K261" t="n">
         <v>5.79</v>
       </c>
-      <c r="L261" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9920,26 +9139,21 @@
         <v>-4700527.810449228</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K262" t="n">
         <v>5.79</v>
       </c>
-      <c r="L262" t="inlineStr">
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9964,26 +9178,21 @@
         <v>-4700527.810449228</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K263" t="n">
         <v>5.79</v>
       </c>
-      <c r="L263" t="inlineStr">
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10008,26 +9217,23 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>5.77</v>
       </c>
       <c r="J264" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K264" t="n">
         <v>5.79</v>
       </c>
-      <c r="L264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10052,26 +9258,23 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J265" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K265" t="n">
         <v>5.79</v>
       </c>
-      <c r="L265" t="inlineStr">
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10098,22 +9301,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
         <v>5.79</v>
       </c>
-      <c r="L266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10140,22 +9340,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
         <v>5.79</v>
       </c>
-      <c r="L267" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10182,22 +9379,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
         <v>5.79</v>
       </c>
-      <c r="L268" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10224,22 +9418,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
         <v>5.79</v>
       </c>
-      <c r="L269" t="inlineStr">
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10266,22 +9457,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
         <v>5.79</v>
       </c>
-      <c r="L270" t="inlineStr">
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10308,22 +9496,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
         <v>5.79</v>
       </c>
-      <c r="L271" t="inlineStr">
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10348,24 +9533,23 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J272" t="n">
         <v>5.79</v>
       </c>
-      <c r="L272" t="inlineStr">
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10390,24 +9574,23 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J273" t="n">
         <v>5.79</v>
       </c>
-      <c r="L273" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10434,22 +9617,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
         <v>5.79</v>
       </c>
-      <c r="L274" t="inlineStr">
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10476,22 +9656,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
         <v>5.79</v>
       </c>
-      <c r="L275" t="inlineStr">
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10518,22 +9695,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
         <v>5.79</v>
       </c>
-      <c r="L276" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10560,22 +9734,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
         <v>5.79</v>
       </c>
-      <c r="L277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10602,22 +9773,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
         <v>5.79</v>
       </c>
-      <c r="L278" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10644,22 +9812,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
         <v>5.79</v>
       </c>
-      <c r="L279" t="inlineStr">
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10686,24 +9851,21 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
         <v>5.79</v>
       </c>
-      <c r="L280" t="inlineStr">
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-294297.311912931</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-187395.1897129311</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-208088.870212931</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-208071.383012931</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-137976.561512931</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-127968.561512931</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-127968.561512931</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75923.44971293102</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>532902.1780979632</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>516302.5059979632</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>791419.8545979632</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>777944.5369979632</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>771274.0390979633</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>677212.0472979632</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>879926.0117979631</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>879926.0117979631</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1041644.486197963</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>990744.4932979632</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1219503.318597963</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1219641.570997963</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1219924.853497963</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1253583.312197963</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1186576.530897963</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>978979.9799979633</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>560969.9718979633</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>763185.5252979633</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>762525.5252979633</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1337494.474702037</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1337574.474702037</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1337574.474702037</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1729605.930102037</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1729605.930102037</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1781985.672202037</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1781965.672202037</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1927092.508402037</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1927072.508402037</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1927548.929802037</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1926538.929802037</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1926974.040502037</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1926964.040502037</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2072652.707202037</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2071120.774502037</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2071130.774502037</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2071130.774502037</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2072130.774502037</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2279916.751602037</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2753644.213902037</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2926877.920702036</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2924831.958202037</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3156466.439702037</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3268836.249202037</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3268826.249202037</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -8437,11 +8437,17 @@
         <v>-4605499.047949228</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8480,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8513,17 @@
         <v>-4599450.227549228</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>5.81</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,15 +8552,17 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>5.79</v>
       </c>
-      <c r="J247" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,15 +8591,15 @@
         <v>-4599470.227549228</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
@@ -8612,15 +8630,15 @@
         <v>-4597978.105349228</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
         <v>5.79</v>
       </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8651,14 +8669,12 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>5.89</v>
       </c>
-      <c r="J250" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8695,9 +8711,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,14 +8745,12 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>5.88</v>
       </c>
-      <c r="J252" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,14 +8784,12 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>5.88</v>
       </c>
-      <c r="J253" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8813,12 +8823,12 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8852,14 +8862,12 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>5.81</v>
       </c>
-      <c r="J255" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8893,14 +8901,12 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>5.81</v>
       </c>
-      <c r="J256" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8934,14 +8940,12 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>5.8</v>
       </c>
-      <c r="J257" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,14 +8979,12 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>5.8</v>
       </c>
-      <c r="J258" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,14 +9018,12 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>5.8</v>
       </c>
-      <c r="J259" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,14 +9057,12 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>5.8</v>
       </c>
-      <c r="J260" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,14 +9096,12 @@
         <v>-4693064.950249228</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>5.81</v>
       </c>
-      <c r="J261" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9139,12 +9135,12 @@
         <v>-4700527.810449228</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9178,12 +9174,12 @@
         <v>-4700527.810449228</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9217,14 +9213,12 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>5.77</v>
       </c>
-      <c r="J264" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9258,14 +9252,12 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>5.88</v>
       </c>
-      <c r="J265" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,9 +9294,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,9 +9331,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,9 +9368,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,9 +9405,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9458,9 +9442,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9497,9 +9479,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9533,14 +9513,10 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J272" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,14 +9550,10 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J273" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9618,9 +9590,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9657,9 +9627,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,9 +9664,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,9 +9701,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,9 +9738,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,9 +9775,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9852,9 +9812,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9866,6 +9824,6 @@
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-294297.311912931</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-187395.1897129311</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-208088.870212931</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-208071.383012931</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-137976.561512931</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-127968.561512931</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-127968.561512931</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-75923.44971293102</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>532902.1780979632</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>516302.5059979632</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>791419.8545979632</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>777944.5369979632</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>879926.0117979631</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>879926.0117979631</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1041644.486197963</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>990744.4932979632</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1219503.318597963</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1219641.570997963</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>978979.9799979633</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>560969.9718979633</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>763185.5252979633</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>762525.5252979633</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1337494.474702037</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1337574.474702037</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1337574.474702037</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1729605.930102037</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1729605.930102037</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1781985.672202037</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1781965.672202037</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1927092.508402037</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1927072.508402037</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1927548.929802037</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1926538.929802037</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1926974.040502037</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1926964.040502037</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2072652.707202037</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2071120.774502037</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2071130.774502037</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2071130.774502037</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2072130.774502037</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2279916.751602037</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2753644.213902037</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2926877.920702036</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2924831.958202037</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3156466.439702037</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4296192.890628352</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4303273.450228352</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4431450.956828352</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8437,17 +8437,11 @@
         <v>-4605499.047949228</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8480,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8513,17 +8503,11 @@
         <v>-4599450.227549228</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8552,17 +8536,11 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8591,17 +8569,11 @@
         <v>-4599470.227549228</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8630,17 +8602,11 @@
         <v>-4597978.105349228</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>5.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8669,17 +8635,11 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8708,15 +8668,11 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +8709,7 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8862,11 +8818,9 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>5.81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -8979,11 +8933,9 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>5.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
@@ -9018,11 +8970,9 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
@@ -9057,11 +9007,9 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>5.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9213,11 +9161,9 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9291,9 +9237,11 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9328,9 +9276,11 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9365,9 +9315,11 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9439,9 +9391,11 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.89</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9476,18 +9430,16 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -9513,13 +9465,17 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9550,13 +9506,17 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9587,10 +9547,12 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,7 +9589,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,10 +9625,12 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,10 +9664,12 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,10 +9703,12 @@
         <v>-3234821.146949228</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,7 +9745,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9812,7 +9784,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5.89</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9824,6 +9798,6 @@
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -1705,7 +1705,7 @@
         <v>1042203.886397963</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1041644.486197963</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1042631.930597963</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>990744.4932979632</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>975632.4186979631</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>976479.9617979631</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1182626.658797963</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1169279.906397963</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1207740.070297963</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1219503.318597963</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1219358.985397963</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>1219457.938897963</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1219567.938897963</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1219742.070997963</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1219641.570997963</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1219651.570997963</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1219924.853497963</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1266592.469797963</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1253583.312197963</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1186576.530897963</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1148745.124497963</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1148756.124497963</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1111285.615497963</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1111395.615497963</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>978979.9799979633</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>603940.8304979634</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>560969.9718979633</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>824791.1584979633</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4296192.890628352</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4296337.271728352</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4296327.271728352</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4303273.450228352</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4431450.956828352</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4431439.956828352</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4431429.956828352</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4431440.731228353</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8536,10 +8536,14 @@
         <v>-4599440.227549228</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8572,8 +8576,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8615,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +8654,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8690,17 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,15 +8729,15 @@
         <v>-4605331.634249228</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8745,7 +8773,9 @@
       <c r="I253" t="n">
         <v>5.88</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8784,7 +8814,9 @@
       <c r="I254" t="n">
         <v>5.88</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,10 +8850,14 @@
         <v>-4613148.226049228</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="J255" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,7 +8896,9 @@
       <c r="I256" t="n">
         <v>5.81</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,7 +8937,9 @@
       <c r="I257" t="n">
         <v>5.8</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,10 +8973,14 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J258" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,10 +9014,14 @@
         <v>-4663075.950249228</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J259" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,10 +9055,14 @@
         <v>-4663064.950249228</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J260" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,7 +9101,9 @@
       <c r="I261" t="n">
         <v>5.81</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,7 +9142,9 @@
       <c r="I262" t="n">
         <v>5.8</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,7 +9183,9 @@
       <c r="I263" t="n">
         <v>5.77</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9161,10 +9219,14 @@
         <v>-4409330.019649228</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J264" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,7 +9265,9 @@
       <c r="I265" t="n">
         <v>5.88</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,12 +9301,12 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9276,12 +9340,12 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,12 +9379,12 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9357,7 +9421,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9391,12 +9457,12 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9430,16 +9496,20 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5.79</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
       <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -9465,17 +9535,15 @@
         <v>-4404019.252649228</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9506,17 +9574,15 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9547,11 +9613,11 @@
         <v>-3968198.639649228</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9590,7 +9656,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9625,11 +9691,11 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9664,11 +9730,11 @@
         <v>-3542084.021749228</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9703,11 +9769,11 @@
         <v>-3234821.146949228</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9746,7 +9812,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9785,7 +9851,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>5.89</v>
+        <v>5.79</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>

--- a/BackTest/2019-10-18 BackTest FAB.xlsx
+++ b/BackTest/2019-10-18 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>137881.2865</v>
       </c>
       <c r="G2" t="n">
-        <v>-294297.311912931</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>106902.1222</v>
       </c>
       <c r="G3" t="n">
-        <v>-187395.1897129311</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>20693.6805</v>
       </c>
       <c r="G4" t="n">
-        <v>-208088.870212931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>17.4872</v>
       </c>
       <c r="G5" t="n">
-        <v>-208071.383012931</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>70094.82150000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-137976.561512931</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10008</v>
       </c>
       <c r="G7" t="n">
-        <v>-127968.561512931</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9942</v>
       </c>
       <c r="G8" t="n">
-        <v>-127968.561512931</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>52045.1118</v>
       </c>
       <c r="G9" t="n">
-        <v>-75923.44971293102</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>608825.6278108943</v>
       </c>
       <c r="G10" t="n">
-        <v>532902.1780979632</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>16599.6721</v>
       </c>
       <c r="G11" t="n">
-        <v>516302.5059979632</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>275117.3486</v>
       </c>
       <c r="G12" t="n">
-        <v>791419.8545979632</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>13475.3176</v>
       </c>
       <c r="G13" t="n">
-        <v>777944.5369979632</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>6670.4979</v>
       </c>
       <c r="G14" t="n">
-        <v>771274.0390979633</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>771296.0390979633</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>73894.70510000001</v>
       </c>
       <c r="G16" t="n">
-        <v>697401.3339979632</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>655.6836</v>
       </c>
       <c r="G17" t="n">
-        <v>697401.3339979632</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>20189.2867</v>
       </c>
       <c r="G18" t="n">
-        <v>677212.0472979632</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>677223.0472979632</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>18508.0232</v>
       </c>
       <c r="G20" t="n">
-        <v>658715.0240979631</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>100.1411</v>
       </c>
       <c r="G21" t="n">
-        <v>658715.0240979631</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>87417.303</v>
       </c>
       <c r="G22" t="n">
-        <v>658715.0240979631</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>219956.1392</v>
       </c>
       <c r="G23" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1240.8588</v>
       </c>
       <c r="G24" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>5897.2244</v>
       </c>
       <c r="G25" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>211.1112</v>
       </c>
       <c r="G26" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>200490.9983</v>
       </c>
       <c r="G27" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>18456.1515</v>
       </c>
       <c r="G28" t="n">
-        <v>878671.1632979631</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1254.8485</v>
       </c>
       <c r="G29" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1556.7434</v>
       </c>
       <c r="G30" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>9855.222400000001</v>
       </c>
       <c r="G31" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>491.3166</v>
       </c>
       <c r="G32" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2452.7168</v>
       </c>
       <c r="G33" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>8999.969999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>33</v>
       </c>
       <c r="G35" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>18917.6298</v>
       </c>
       <c r="G36" t="n">
-        <v>879926.0117979631</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>161311.6715</v>
       </c>
       <c r="G37" t="n">
-        <v>1041237.683297963</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>966.2030999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>1042203.886397963</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>26066</v>
       </c>
       <c r="G39" t="n">
-        <v>1042203.886397963</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>54</v>
       </c>
       <c r="G40" t="n">
-        <v>1042203.886397963</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>559.4002</v>
       </c>
       <c r="G41" t="n">
-        <v>1041644.486197963</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>987.4444</v>
       </c>
       <c r="G42" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2594.7564</v>
       </c>
       <c r="G43" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1496.7879</v>
       </c>
       <c r="G44" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>11582.45895732899</v>
       </c>
       <c r="G47" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>288.8888</v>
       </c>
       <c r="G48" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>333.3332</v>
       </c>
       <c r="G49" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>99048.53419999999</v>
       </c>
       <c r="G50" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>713.7961</v>
       </c>
       <c r="G53" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>22238.222</v>
       </c>
       <c r="G54" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>5177.7776</v>
       </c>
       <c r="G55" t="n">
-        <v>1042631.930597963</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>51887.4373</v>
       </c>
       <c r="G56" t="n">
-        <v>990744.4932979632</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>15112.0746</v>
       </c>
       <c r="G57" t="n">
-        <v>975632.4186979631</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>847.5431</v>
       </c>
       <c r="G58" t="n">
-        <v>976479.9617979631</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>23622.2774</v>
       </c>
       <c r="G59" t="n">
-        <v>976479.9617979631</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>206146.697</v>
       </c>
       <c r="G60" t="n">
-        <v>1182626.658797963</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>121.8888</v>
       </c>
       <c r="G61" t="n">
-        <v>1182626.658797963</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>44.4444</v>
       </c>
       <c r="G62" t="n">
-        <v>1182626.658797963</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>37802.2801</v>
       </c>
       <c r="G63" t="n">
-        <v>1182626.658797963</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>25000</v>
       </c>
       <c r="G64" t="n">
-        <v>1182626.658797963</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>13346.7524</v>
       </c>
       <c r="G65" t="n">
-        <v>1169279.906397963</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>1169279.906397963</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2136.6979</v>
       </c>
       <c r="G67" t="n">
-        <v>1169279.906397963</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>1169279.906397963</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>1169279.906397963</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>38460.1639</v>
       </c>
       <c r="G70" t="n">
-        <v>1207740.070297963</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>1207740.070297963</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>151449.8361</v>
       </c>
       <c r="G72" t="n">
-        <v>1207740.070297963</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>607.5040783034258</v>
       </c>
       <c r="G73" t="n">
-        <v>1207740.070297963</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>11763.2483</v>
       </c>
       <c r="G74" t="n">
-        <v>1219503.318597963</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>144.3332</v>
       </c>
       <c r="G75" t="n">
-        <v>1219358.985397963</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>98.95350000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>275.393</v>
       </c>
       <c r="G77" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>44.4444</v>
       </c>
       <c r="G78" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>955.5556</v>
       </c>
       <c r="G79" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>47850.00006436758</v>
       </c>
       <c r="G81" t="n">
-        <v>1219457.938897963</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>110</v>
       </c>
       <c r="G82" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>736873.0081</v>
       </c>
       <c r="G83" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>20886.0167</v>
       </c>
       <c r="G84" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>200</v>
       </c>
       <c r="G85" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>41278.1028</v>
       </c>
       <c r="G86" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1511.5384</v>
       </c>
       <c r="G87" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>155.9191</v>
       </c>
       <c r="G88" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>162.3376</v>
       </c>
       <c r="G89" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>89</v>
       </c>
       <c r="G90" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1350</v>
       </c>
       <c r="G91" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1650</v>
       </c>
       <c r="G92" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2200</v>
       </c>
       <c r="G93" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>4800</v>
       </c>
       <c r="G95" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>6000</v>
       </c>
       <c r="G96" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>8600</v>
       </c>
       <c r="G97" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>8400</v>
       </c>
       <c r="G98" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>94306.61500000001</v>
       </c>
       <c r="G101" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>16260.1626</v>
       </c>
       <c r="G102" t="n">
-        <v>1219567.938897963</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>174.1321</v>
       </c>
       <c r="G103" t="n">
-        <v>1219742.070997963</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>1219742.070997963</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>100.5</v>
       </c>
       <c r="G105" t="n">
-        <v>1219641.570997963</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>29</v>
       </c>
       <c r="G109" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>353.4090909090909</v>
       </c>
       <c r="G110" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>52</v>
       </c>
       <c r="G112" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>196.7532</v>
       </c>
       <c r="G113" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2634.4686</v>
       </c>
       <c r="G114" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>55.4444</v>
       </c>
       <c r="G115" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1199.4404</v>
       </c>
       <c r="G116" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>403.0121</v>
       </c>
       <c r="G117" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>84.41549999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>48967.6447987013</v>
       </c>
       <c r="G120" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1.0389610389612e-05</v>
       </c>
       <c r="G121" t="n">
-        <v>1219651.570997963</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>273.2825</v>
       </c>
       <c r="G122" t="n">
-        <v>1219924.853497963</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>46667.6163</v>
       </c>
       <c r="G123" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>30387.74193548387</v>
       </c>
       <c r="G124" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>743.5699</v>
       </c>
       <c r="G125" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>143.3332</v>
       </c>
       <c r="G126" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>58.0645</v>
       </c>
       <c r="G127" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>488.6023</v>
       </c>
       <c r="G129" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>255.4444</v>
       </c>
       <c r="G130" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>425.5059</v>
       </c>
       <c r="G131" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>88.8888</v>
       </c>
       <c r="G132" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>10000</v>
       </c>
       <c r="G133" t="n">
-        <v>1266592.469797963</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>13009.1576</v>
       </c>
       <c r="G134" t="n">
-        <v>1253583.312197963</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>67006.7813</v>
       </c>
       <c r="G135" t="n">
-        <v>1186576.530897963</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>37831.4064</v>
       </c>
       <c r="G136" t="n">
-        <v>1148745.124497963</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>10094.0726</v>
       </c>
       <c r="G137" t="n">
-        <v>1148745.124497963</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>11</v>
       </c>
       <c r="G138" t="n">
-        <v>1148756.124497963</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>100</v>
       </c>
       <c r="G139" t="n">
-        <v>1148756.124497963</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>73.8</v>
       </c>
       <c r="G140" t="n">
-        <v>1148756.124497963</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>37470.509</v>
       </c>
       <c r="G141" t="n">
-        <v>1111285.615497963</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>110</v>
       </c>
       <c r="G142" t="n">
-        <v>1111395.615497963</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>132415.6355</v>
       </c>
       <c r="G143" t="n">
-        <v>978979.9799979633</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>375039.1495</v>
       </c>
       <c r="G144" t="n">
-        <v>603940.8304979634</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>14277.4286</v>
       </c>
       <c r="G145" t="n">
-        <v>603940.8304979634</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>42970.8586</v>
       </c>
       <c r="G146" t="n">
-        <v>560969.9718979633</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>263821.1866</v>
       </c>
       <c r="G147" t="n">
-        <v>824791.1584979633</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>100</v>
       </c>
       <c r="G148" t="n">
-        <v>824791.1584979633</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>824791.1584979633</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>93319.5419</v>
       </c>
       <c r="G150" t="n">
-        <v>824791.1584979633</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>61605.6332</v>
       </c>
       <c r="G151" t="n">
-        <v>763185.5252979633</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>660</v>
       </c>
       <c r="G152" t="n">
-        <v>762525.5252979633</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>2100020</v>
       </c>
       <c r="G153" t="n">
-        <v>-1337494.474702037</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>20</v>
       </c>
       <c r="G154" t="n">
-        <v>-1337474.474702037</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>-1337574.474702037</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>-1337574.474702037</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>303071.9831</v>
       </c>
       <c r="G157" t="n">
-        <v>-1640646.457802037</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>-1640646.457802037</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1100</v>
       </c>
       <c r="G159" t="n">
-        <v>-1640646.457802037</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>88969.47229999999</v>
       </c>
       <c r="G160" t="n">
-        <v>-1729615.930102037</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>-1729605.930102037</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>44.6127</v>
       </c>
       <c r="G162" t="n">
-        <v>-1729605.930102037</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>100</v>
       </c>
       <c r="G163" t="n">
-        <v>-1729605.930102037</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>52379.7421</v>
       </c>
       <c r="G164" t="n">
-        <v>-1781985.672202037</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,19 @@
         <v>20</v>
       </c>
       <c r="G165" t="n">
-        <v>-1781965.672202037</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5367,23 @@
         <v>145126.8362</v>
       </c>
       <c r="G166" t="n">
-        <v>-1927092.508402037</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>5.94</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5405,23 @@
         <v>20</v>
       </c>
       <c r="G167" t="n">
-        <v>-1927072.508402037</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5443,19 @@
         <v>476.4214</v>
       </c>
       <c r="G168" t="n">
-        <v>-1927548.929802037</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>5.94</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5477,23 @@
         <v>1010</v>
       </c>
       <c r="G169" t="n">
-        <v>-1926538.929802037</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5515,23 @@
         <v>435.1107</v>
       </c>
       <c r="G170" t="n">
-        <v>-1926974.040502037</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>5.94</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5553,19 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>-1926964.040502037</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>5.93</v>
+      </c>
+      <c r="I171" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5587,23 @@
         <v>145688.6667</v>
       </c>
       <c r="G172" t="n">
-        <v>-2072652.707202037</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>5.95</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5625,21 @@
         <v>1531.9327</v>
       </c>
       <c r="G173" t="n">
-        <v>-2071120.774502037</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5661,15 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>-2071130.774502037</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5691,15 @@
         <v>1100</v>
       </c>
       <c r="G175" t="n">
-        <v>-2071130.774502037</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5721,15 @@
         <v>1000</v>
       </c>
       <c r="G176" t="n">
-        <v>-2072130.774502037</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5751,21 @@
         <v>207785.9771</v>
       </c>
       <c r="G177" t="n">
-        <v>-2279916.751602037</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5787,21 @@
         <v>473727.4623</v>
       </c>
       <c r="G178" t="n">
-        <v>-2753644.213902037</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5823,21 @@
         <v>173233.7068</v>
       </c>
       <c r="G179" t="n">
-        <v>-2926877.920702036</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5859,21 @@
         <v>2045.9625</v>
       </c>
       <c r="G180" t="n">
-        <v>-2924831.958202037</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5895,21 @@
         <v>231634.4815</v>
       </c>
       <c r="G181" t="n">
-        <v>-3156466.439702037</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5931,21 @@
         <v>112369.8095</v>
       </c>
       <c r="G182" t="n">
-        <v>-3268836.249202037</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5967,21 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>-3268826.249202037</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>5.66</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6003,19 @@
         <v>3272.127</v>
       </c>
       <c r="G184" t="n">
-        <v>-3272098.376202037</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6037,19 @@
         <v>12462.077</v>
       </c>
       <c r="G185" t="n">
-        <v>-3259636.299202037</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6071,19 @@
         <v>63819.9287</v>
       </c>
       <c r="G186" t="n">
-        <v>-3259636.299202037</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6105,19 @@
         <v>100</v>
       </c>
       <c r="G187" t="n">
-        <v>-3259636.299202037</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6139,19 @@
         <v>100</v>
       </c>
       <c r="G188" t="n">
-        <v>-3259636.299202037</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6173,19 @@
         <v>221065.7438</v>
       </c>
       <c r="G189" t="n">
-        <v>-3480702.043002036</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6207,19 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>-3480712.043002036</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6241,19 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>-3480702.043002036</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6275,21 @@
         <v>1099.8983</v>
       </c>
       <c r="G192" t="n">
-        <v>-3480702.043002036</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6311,19 @@
         <v>3280</v>
       </c>
       <c r="G193" t="n">
-        <v>-3483982.043002036</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6345,21 @@
         <v>1000</v>
       </c>
       <c r="G194" t="n">
-        <v>-3482982.043002036</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6381,19 @@
         <v>2794.9593</v>
       </c>
       <c r="G195" t="n">
-        <v>-3480187.083702036</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6415,19 @@
         <v>77.551</v>
       </c>
       <c r="G196" t="n">
-        <v>-3480187.083702036</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6449,19 @@
         <v>13628.7414</v>
       </c>
       <c r="G197" t="n">
-        <v>-3480187.083702036</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6483,19 @@
         <v>170.068</v>
       </c>
       <c r="G198" t="n">
-        <v>-3480187.083702036</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6517,19 @@
         <v>808346.5201</v>
       </c>
       <c r="G199" t="n">
-        <v>-4288533.603802036</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6551,19 @@
         <v>93</v>
       </c>
       <c r="G200" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6585,19 @@
         <v>5916.593473972603</v>
       </c>
       <c r="G201" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6619,19 @@
         <v>228.9453</v>
       </c>
       <c r="G202" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6653,19 @@
         <v>44.4444</v>
       </c>
       <c r="G203" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6687,19 @@
         <v>7866.6668</v>
       </c>
       <c r="G204" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6721,19 @@
         <v>225</v>
       </c>
       <c r="G205" t="n">
-        <v>-4288440.603802036</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6755,19 @@
         <v>3113.2075</v>
       </c>
       <c r="G206" t="n">
-        <v>-4291553.811302036</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6789,19 @@
         <v>9339.688</v>
       </c>
       <c r="G207" t="n">
-        <v>-4291553.811302036</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6823,19 @@
         <v>92.2945</v>
       </c>
       <c r="G208" t="n">
-        <v>-4291553.811302036</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6857,19 @@
         <v>10000</v>
       </c>
       <c r="G209" t="n">
-        <v>-4301553.811302036</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6891,19 @@
         <v>172.1170395869191</v>
       </c>
       <c r="G210" t="n">
-        <v>-4301381.694262449</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6925,19 @@
         <v>1750.1719</v>
       </c>
       <c r="G211" t="n">
-        <v>-4301381.694262449</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6959,19 @@
         <v>42162.94858672887</v>
       </c>
       <c r="G212" t="n">
-        <v>-4259218.74567572</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6993,19 @@
         <v>72262.58500000001</v>
       </c>
       <c r="G213" t="n">
-        <v>-4331481.33067572</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7027,19 @@
         <v>71686.34697368421</v>
       </c>
       <c r="G214" t="n">
-        <v>-4259794.983702036</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7061,19 @@
         <v>108026.4406</v>
       </c>
       <c r="G215" t="n">
-        <v>-4259794.983702036</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7095,19 @@
         <v>36534.50012631579</v>
       </c>
       <c r="G216" t="n">
-        <v>-4296329.483828352</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7129,19 @@
         <v>136.5932</v>
       </c>
       <c r="G217" t="n">
-        <v>-4296192.890628352</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7163,19 @@
         <v>154.3811</v>
       </c>
       <c r="G218" t="n">
-        <v>-4296347.271728352</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7197,19 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>-4296337.271728352</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7231,19 @@
         <v>28</v>
       </c>
       <c r="G220" t="n">
-        <v>-4296337.271728352</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7265,19 @@
         <v>11425.4976</v>
       </c>
       <c r="G221" t="n">
-        <v>-4296337.271728352</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7299,19 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>-4296327.271728352</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7333,19 @@
         <v>5185.4178</v>
       </c>
       <c r="G223" t="n">
-        <v>-4296327.271728352</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7367,19 @@
         <v>6946.1785</v>
       </c>
       <c r="G224" t="n">
-        <v>-4303273.450228352</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7401,19 @@
         <v>128177.5066</v>
       </c>
       <c r="G225" t="n">
-        <v>-4431450.956828352</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7435,19 @@
         <v>11</v>
       </c>
       <c r="G226" t="n">
-        <v>-4431439.956828352</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7469,19 @@
         <v>2020.642978003384</v>
       </c>
       <c r="G227" t="n">
-        <v>-4431439.956828352</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7503,19 @@
         <v>285.1785</v>
       </c>
       <c r="G228" t="n">
-        <v>-4431439.956828352</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7537,19 @@
         <v>777.1573</v>
       </c>
       <c r="G229" t="n">
-        <v>-4431439.956828352</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7571,19 @@
         <v>4722.842639593909</v>
       </c>
       <c r="G230" t="n">
-        <v>-4431439.956828352</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7605,19 @@
         <v>10</v>
       </c>
       <c r="G231" t="n">
-        <v>-4431429.956828352</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7639,19 @@
         <v>5000</v>
       </c>
       <c r="G232" t="n">
-        <v>-4431429.956828352</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7673,19 @@
         <v>20</v>
       </c>
       <c r="G233" t="n">
-        <v>-4431429.956828352</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7707,19 @@
         <v>10.7744</v>
       </c>
       <c r="G234" t="n">
-        <v>-4431440.731228353</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7741,19 @@
         <v>43</v>
       </c>
       <c r="G235" t="n">
-        <v>-4431440.731228353</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7775,19 @@
         <v>573</v>
       </c>
       <c r="G236" t="n">
-        <v>-4431440.731228353</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7809,19 @@
         <v>32</v>
       </c>
       <c r="G237" t="n">
-        <v>-4431440.731228353</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7843,19 @@
         <v>547.4949</v>
       </c>
       <c r="G238" t="n">
-        <v>-4431440.731228353</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7877,19 @@
         <v>2813.1157</v>
       </c>
       <c r="G239" t="n">
-        <v>-4434253.846928352</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7911,19 @@
         <v>2727.554</v>
       </c>
       <c r="G240" t="n">
-        <v>-4436981.400928352</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7945,19 @@
         <v>11</v>
       </c>
       <c r="G241" t="n">
-        <v>-4436970.400928352</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7979,19 @@
         <v>168528.6470208754</v>
       </c>
       <c r="G242" t="n">
-        <v>-4605499.047949228</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8013,19 @@
         <v>17891.8492</v>
       </c>
       <c r="G243" t="n">
-        <v>-4605499.047949228</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8047,19 @@
         <v>22</v>
       </c>
       <c r="G244" t="n">
-        <v>-4605499.047949228</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8081,19 @@
         <v>10373.05</v>
       </c>
       <c r="G245" t="n">
-        <v>-4595125.997949228</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8115,19 @@
         <v>4324.2296</v>
       </c>
       <c r="G246" t="n">
-        <v>-4599450.227549228</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,22 +8149,19 @@
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>-4599440.227549228</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J247" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8570,24 +8183,19 @@
         <v>30</v>
       </c>
       <c r="G248" t="n">
-        <v>-4599470.227549228</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8609,24 +8217,19 @@
         <v>1492.1222</v>
       </c>
       <c r="G249" t="n">
-        <v>-4597978.105349228</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8648,24 +8251,19 @@
         <v>7353.5289</v>
       </c>
       <c r="G250" t="n">
-        <v>-4605331.634249228</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8687,24 +8285,19 @@
         <v>108.0272</v>
       </c>
       <c r="G251" t="n">
-        <v>-4605331.634249228</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8726,24 +8319,19 @@
         <v>32.3129</v>
       </c>
       <c r="G252" t="n">
-        <v>-4605331.634249228</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8765,26 +8353,19 @@
         <v>58.9972</v>
       </c>
       <c r="G253" t="n">
-        <v>-4605331.634249228</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J253" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8806,26 +8387,19 @@
         <v>7816.5918</v>
       </c>
       <c r="G254" t="n">
-        <v>-4613148.226049228</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J254" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8847,26 +8421,19 @@
         <v>80340.8285</v>
       </c>
       <c r="G255" t="n">
-        <v>-4613148.226049228</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J255" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8888,26 +8455,19 @@
         <v>49927.7242</v>
       </c>
       <c r="G256" t="n">
-        <v>-4663075.950249228</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J256" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8929,26 +8489,19 @@
         <v>72.2758</v>
       </c>
       <c r="G257" t="n">
-        <v>-4663075.950249228</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J257" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8970,26 +8523,19 @@
         <v>146479.4483</v>
       </c>
       <c r="G258" t="n">
-        <v>-4663075.950249228</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J258" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9011,26 +8557,19 @@
         <v>51703.6838</v>
       </c>
       <c r="G259" t="n">
-        <v>-4663075.950249228</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J259" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9052,26 +8591,19 @@
         <v>11</v>
       </c>
       <c r="G260" t="n">
-        <v>-4663064.950249228</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J260" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9093,26 +8625,19 @@
         <v>30000</v>
       </c>
       <c r="G261" t="n">
-        <v>-4693064.950249228</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J261" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9134,26 +8659,19 @@
         <v>7462.8602</v>
       </c>
       <c r="G262" t="n">
-        <v>-4700527.810449228</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J262" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9175,26 +8693,19 @@
         <v>13091.7446</v>
       </c>
       <c r="G263" t="n">
-        <v>-4700527.810449228</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J263" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9216,26 +8727,19 @@
         <v>291197.7908</v>
       </c>
       <c r="G264" t="n">
-        <v>-4409330.019649228</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J264" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9257,26 +8761,19 @@
         <v>5310.767</v>
       </c>
       <c r="G265" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J265" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9298,24 +8795,19 @@
         <v>1489.5791</v>
       </c>
       <c r="G266" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9337,24 +8829,19 @@
         <v>213.5602</v>
       </c>
       <c r="G267" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9376,24 +8863,19 @@
         <v>14.3293</v>
       </c>
       <c r="G268" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9415,24 +8897,19 @@
         <v>72.13039999999999</v>
       </c>
       <c r="G269" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9454,24 +8931,19 @@
         <v>10.0084</v>
       </c>
       <c r="G270" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9493,24 +8965,19 @@
         <v>697.4108</v>
       </c>
       <c r="G271" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9532,24 +8999,19 @@
         <v>100</v>
       </c>
       <c r="G272" t="n">
-        <v>-4404019.252649228</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9571,24 +9033,19 @@
         <v>435820.613</v>
       </c>
       <c r="G273" t="n">
-        <v>-3968198.639649228</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9610,24 +9067,19 @@
         <v>286.7032</v>
       </c>
       <c r="G274" t="n">
-        <v>-3968198.639649228</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9649,24 +9101,19 @@
         <v>426114.6179</v>
       </c>
       <c r="G275" t="n">
-        <v>-3542084.021749228</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9688,24 +9135,19 @@
         <v>804.9833</v>
       </c>
       <c r="G276" t="n">
-        <v>-3542084.021749228</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9727,24 +9169,19 @@
         <v>45883.4484</v>
       </c>
       <c r="G277" t="n">
-        <v>-3542084.021749228</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9766,24 +9203,19 @@
         <v>307262.8748</v>
       </c>
       <c r="G278" t="n">
-        <v>-3234821.146949228</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9805,24 +9237,19 @@
         <v>316629.8729</v>
       </c>
       <c r="G279" t="n">
-        <v>-2918191.274049229</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9844,24 +9271,19 @@
         <v>109647.8896</v>
       </c>
       <c r="G280" t="n">
-        <v>-2918191.274049229</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
